--- a/Traking/Winners_Tracking.xlsx
+++ b/Traking/Winners_Tracking.xlsx
@@ -1,41 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fef60bdfbb7e8819/Documents/GitHub/scrabble-td3-winners/Traking_winners/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCA\Ingenierie logicielle\winners\scrabble-td3-winners\Traking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{01AE283C-967B-4F0D-8C09-9398F61759EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E238C1C-A68B-43EB-A4F8-964F5C6A8454}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B01F9B5-068F-4885-A8A9-E76A36D1EBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{69E16E0F-F538-B845-8F7F-630A124B2F74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69E16E0F-F538-B845-8F7F-630A124B2F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
-    <sheet name="Table Dynamique" sheetId="6" r:id="rId2"/>
-    <sheet name="Feuil1" sheetId="7" r:id="rId3"/>
-    <sheet name="History" sheetId="3" r:id="rId4"/>
+    <sheet name="Tableau dynamique" sheetId="7" r:id="rId2"/>
+    <sheet name="History" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_HistoryC4F431" hidden="1">History!$C$4:$F$43</definedName>
-  </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="5" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
-      <x15:dataModel>
-        <x15:modelTables>
-          <x15:modelTable id="Plage" name="Plage" connection="WorksheetConnection_History!$C$4:$F$43"/>
-        </x15:modelTables>
-      </x15:dataModel>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -73,31 +61,8 @@
 </comments>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{46C8EC51-061D-4B1B-AB61-4E7FE65504C5}" keepAlive="1" name="ThisWorkbookDataModel" description="Modèle de données" type="5" refreshedVersion="7" minRefreshableVersion="5" background="1">
-    <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
-    <olapPr sendLocale="1" rowDrillCount="1000"/>
-    <extLst>
-      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
-        <x15:connection id="" model="1"/>
-      </ext>
-    </extLst>
-  </connection>
-  <connection id="2" xr16:uid="{497B758E-F638-451C-98A8-FEC76D8AC7B1}" name="WorksheetConnection_History!$C$4:$F$43" type="102" refreshedVersion="7" minRefreshableVersion="5">
-    <extLst>
-      <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
-        <x15:connection id="Plage" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_HistoryC4F431"/>
-        </x15:connection>
-      </ext>
-    </extLst>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="116">
   <si>
     <t>Project information</t>
   </si>
@@ -218,24 +183,15 @@
     <t>Installation des Outils</t>
   </si>
   <si>
-    <t>CPM</t>
-  </si>
-  <si>
     <t>Création du projet Maven</t>
   </si>
   <si>
     <t>IT</t>
   </si>
   <si>
-    <t>Intégration Travis</t>
-  </si>
-  <si>
     <t>IJ</t>
   </si>
   <si>
-    <t>Intégration Java</t>
-  </si>
-  <si>
     <t>CC</t>
   </si>
   <si>
@@ -275,27 +231,12 @@
     <t>APM</t>
   </si>
   <si>
-    <t>API pour positionner un mot</t>
-  </si>
-  <si>
     <t>APFJ</t>
   </si>
   <si>
-    <t>API pour demander de finir un jeu</t>
-  </si>
-  <si>
     <t>APLP</t>
   </si>
   <si>
-    <t>API pour lancer la partie</t>
-  </si>
-  <si>
-    <t>APDJ</t>
-  </si>
-  <si>
-    <t>API pour demander au joueur de joueur</t>
-  </si>
-  <si>
     <t>EFT</t>
   </si>
   <si>
@@ -314,12 +255,6 @@
     <t>Intégration Docker</t>
   </si>
   <si>
-    <t>APAC</t>
-  </si>
-  <si>
-    <t>API pour permettre à la partie et l'annagrammeur de se connecter à l'appariement en donnant leur url</t>
-  </si>
-  <si>
     <t>TU</t>
   </si>
   <si>
@@ -416,9 +351,6 @@
     <t>CT</t>
   </si>
   <si>
-    <t>Création du traking</t>
-  </si>
-  <si>
     <t>Ajout de la dépendance de sprintboot dans le module partie</t>
   </si>
   <si>
@@ -446,73 +378,40 @@
     <t>Étiquettes de colonnes</t>
   </si>
   <si>
-    <t>Total ABS</t>
-  </si>
-  <si>
-    <t>Total APFJ</t>
-  </si>
-  <si>
-    <t>Total APLP</t>
-  </si>
-  <si>
-    <t>Total APM</t>
-  </si>
-  <si>
-    <t>Total CC</t>
-  </si>
-  <si>
-    <t>Total CP</t>
-  </si>
-  <si>
-    <t>Total CT</t>
-  </si>
-  <si>
-    <t>Total EDL1</t>
-  </si>
-  <si>
-    <t>Total Id</t>
-  </si>
-  <si>
-    <t>Total IJ</t>
-  </si>
-  <si>
-    <t>Total IO</t>
-  </si>
-  <si>
-    <t>Total ISB</t>
-  </si>
-  <si>
-    <t>Total IT</t>
-  </si>
-  <si>
-    <t>Total M</t>
-  </si>
-  <si>
-    <t>Total MPI</t>
-  </si>
-  <si>
-    <t>Total MPPM1</t>
-  </si>
-  <si>
-    <t>Total MPPM2</t>
-  </si>
-  <si>
-    <t>Total TU</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0,5</t>
-  </si>
-  <si>
-    <t>0,8</t>
-  </si>
-  <si>
-    <t>0,2</t>
-  </si>
-  <si>
     <t>;</t>
+  </si>
+  <si>
+    <t>Création du projet Maven, Intégration Travis, Intégration Java,Création des classes</t>
+  </si>
+  <si>
+    <t>Mis en place du projet multimodules: Création des modules avec leur POM et organisation des modules</t>
+  </si>
+  <si>
+    <t>MPPM</t>
+  </si>
+  <si>
+    <t>APIS</t>
+  </si>
+  <si>
+    <t>CAPI</t>
+  </si>
+  <si>
+    <t>Consommation des APIs</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Création de la grille du scrabble</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Créer dictionnaire de mots</t>
+  </si>
+  <si>
+    <t>Création des APIs pour: identifier chaque module dans l'appariement, positionner un mot,  demander de finir un jeu,lancer la partie, donner la main au joueur, récupérer url joueur et partie,Commencer la partie dès que 2 joueurs sont connectés, Vérifier si le mot joué est bon, Compter point</t>
   </si>
 </sst>
 </file>
@@ -714,96 +613,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Fatoumata Binta Diallo" refreshedDate="44714.670950925924" backgroundQuery="1" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{11B56438-AA01-40C3-BD5C-086DF59EB771}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="3">
-    <cacheField name="[Plage].[Who].[Who]" caption="Who" numFmtId="0" hierarchy="1" level="1">
-      <sharedItems count="6">
-        <s v="BL"/>
-        <s v="DFB"/>
-        <s v="DK"/>
-        <s v="MC"/>
-        <s v="OSF"/>
-        <s v="OSM"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Plage].[What].[What]" caption="What" numFmtId="0" hierarchy="2" level="1">
-      <sharedItems count="18">
-        <s v="ABS"/>
-        <s v="APFJ"/>
-        <s v="APLP"/>
-        <s v="APM"/>
-        <s v="CC"/>
-        <s v="CP"/>
-        <s v="CT"/>
-        <s v="EDL1"/>
-        <s v="Id"/>
-        <s v="IJ"/>
-        <s v="IO"/>
-        <s v="ISB"/>
-        <s v="IT"/>
-        <s v="M"/>
-        <s v="MPI"/>
-        <s v="MPPM1"/>
-        <s v="MPPM2"/>
-        <s v="TU"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Plage].[Workload].[Workload]" caption="Workload" numFmtId="0" hierarchy="3" level="1">
-      <sharedItems count="7">
-        <s v="1"/>
-        <s v="0.4"/>
-        <s v="0,5"/>
-        <s v="0.2"/>
-        <s v="0,8"/>
-        <s v="0,2"/>
-        <s v="0.3"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="6">
-    <cacheHierarchy uniqueName="[Plage].[Date]" caption="Date" attribute="1" time="1" defaultMemberUniqueName="[Plage].[Date].[All]" allUniqueName="[Plage].[Date].[All]" dimensionUniqueName="[Plage]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Plage].[Who]" caption="Who" attribute="1" defaultMemberUniqueName="[Plage].[Who].[All]" allUniqueName="[Plage].[Who].[All]" dimensionUniqueName="[Plage]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Plage].[What]" caption="What" attribute="1" defaultMemberUniqueName="[Plage].[What].[All]" allUniqueName="[Plage].[What].[All]" dimensionUniqueName="[Plage]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Plage].[Workload]" caption="Workload" attribute="1" defaultMemberUniqueName="[Plage].[Workload].[All]" allUniqueName="[Plage].[Workload].[All]" dimensionUniqueName="[Plage]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[__XL_Count Plage]" caption="__XL_Count Plage" measure="1" displayFolder="" measureGroup="Plage" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="2">
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-    <dimension name="Plage" uniqueName="[Plage]" caption="Plage"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="Plage" caption="Plage"/>
-  </measureGroups>
-  <maps count="1">
-    <map measureGroup="0" dimension="1"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fatoumata Binta Diallo" refreshedDate="44719.445686689818" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="39" xr:uid="{7DD190C3-CF90-4427-BC48-1945732C3B19}">
   <cacheSource type="worksheet">
     <worksheetSource ref="D4:F43" sheet="History"/>
@@ -1062,269 +871,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{885DA155-6088-409F-B7F5-33A7F0375E15}" name="Tableau croisé dynamique2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:AR12" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="19">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="2"/>
-  </colFields>
-  <colItems count="43">
-    <i>
-      <x/>
-      <x/>
-    </i>
-    <i t="default">
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x v="1"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="2"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="3"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="4"/>
-    </i>
-    <i t="default">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="4"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="1"/>
-    </i>
-    <i t="default">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x/>
-    </i>
-    <i t="default">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x/>
-    </i>
-    <i t="default">
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="4"/>
-    </i>
-    <i t="default">
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i t="default">
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-      <x v="3"/>
-    </i>
-    <i t="default">
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i t="default">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-      <x/>
-    </i>
-    <i t="default">
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-      <x v="3"/>
-    </i>
-    <i t="default">
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-      <x/>
-    </i>
-    <i t="default">
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i t="default">
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-      <x v="6"/>
-    </i>
-    <i t="default">
-      <x v="17"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pivotHierarchies count="6">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="1"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="2">
-    <colHierarchyUsage hierarchyUsage="2"/>
-    <colHierarchyUsage hierarchyUsage="3"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_History!$C$4:$F$43">
-        <x15:activeTabTopLevelEntity name="[Plage]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{94225B9F-BE49-4764-AA95-93BB56895B5F}" name="Tableau croisé dynamique1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{94225B9F-BE49-4764-AA95-93BB56895B5F}" name="Tableau croisé dynamique1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -1774,21 +1321,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAE7E2C-8C99-9742-8F88-0BE23F9A2024}">
-  <dimension ref="B1:K52"/>
+  <dimension ref="B1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="32.5" style="10" customWidth="1"/>
     <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1797,21 +1344,21 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="14"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="14"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -1822,7 +1369,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
@@ -1833,7 +1380,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -1844,7 +1391,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -1855,7 +1402,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -1868,7 +1415,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -1881,7 +1428,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
@@ -1893,21 +1440,21 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="14"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="14"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1916,14 +1463,14 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="14"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1934,7 +1481,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -1945,7 +1492,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
@@ -1956,7 +1503,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
         <v>19</v>
@@ -1967,7 +1514,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -1978,7 +1525,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>23</v>
@@ -1989,7 +1536,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>25</v>
@@ -2000,7 +1547,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
         <v>27</v>
@@ -2011,19 +1558,19 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="14"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="26" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C28" s="6" t="s">
         <v>13</v>
       </c>
@@ -2052,7 +1599,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -2063,7 +1610,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>37</v>
       </c>
@@ -2074,229 +1621,229 @@
         <v>3</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30:F48" si="0">IF(ISNUMBER(E30),E30,IF(ISNUMBER(G30),G30,""))</f>
+        <f t="shared" ref="F30:F44" si="0">IF(ISNUMBER(E30),E30,IF(ISNUMBER(G30),G30,""))</f>
         <v>3</v>
       </c>
       <c r="G30">
         <v>6</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:H48" si="1">IF(ISNUMBER(F30),F30-G30,"")</f>
+        <f t="shared" ref="H30:H44" si="1">IF(ISNUMBER(F30),F30-G30,"")</f>
         <v>-3</v>
       </c>
       <c r="I30" s="21">
-        <f t="shared" ref="I30:I45" si="2">IF(ISNUMBER(G30), G30/F30,"")</f>
+        <f t="shared" ref="I30:I41" si="2">IF(ISNUMBER(G30), G30/F30,"")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="E31">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="I31" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>42</v>
+        <v>107</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="E32">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="I32" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="E33">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I33" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="E34">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I34" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="3:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E35">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I35" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="3:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:9" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="E36">
-        <v>0.4</v>
+        <v>15</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>15</v>
       </c>
       <c r="H36">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>15</v>
       </c>
       <c r="I36" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="3:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="E37">
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="H37">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>10</v>
       </c>
       <c r="I37" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="E38">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <f t="shared" si="1"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I38" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E39">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I39" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="3:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>57</v>
       </c>
@@ -2304,215 +1851,110 @@
         <v>58</v>
       </c>
       <c r="E40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I40" s="21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="E41">
-        <v>0.5</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="I41" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="I41" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" s="21"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D43" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E42">
-        <v>0.5</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="I42" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="3:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="C43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>64</v>
-      </c>
       <c r="E43">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H43">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="I43" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="I43" s="21"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H44">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I44" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D46" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G45">
-        <v>3</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="21">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C46" t="s">
-        <v>109</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="I46" s="21"/>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C47" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I47" s="21"/>
-    </row>
-    <row r="48" spans="3:9" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="C48" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48">
-        <v>0.5</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C50" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C51" t="s">
-        <v>75</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D52" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52">
-        <f>SUM(E30:E48)</f>
-        <v>10.100000000000001</v>
+      <c r="E46">
+        <f>SUM(E30:E43)</f>
+        <v>42.4</v>
       </c>
     </row>
   </sheetData>
@@ -2522,296 +1964,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DF410C-7F2F-45AF-898B-1403CE31B136}">
-  <dimension ref="A3:AR12"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.58203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.58203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.08203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="1.75" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.9140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="3.25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="1.75" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.9140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="3.25" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="1.75" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="B3" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" t="s">
-        <v>118</v>
-      </c>
-      <c r="J4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L4" t="s">
-        <v>87</v>
-      </c>
-      <c r="M4" t="s">
-        <v>120</v>
-      </c>
-      <c r="N4" t="s">
-        <v>104</v>
-      </c>
-      <c r="O4" t="s">
-        <v>121</v>
-      </c>
-      <c r="P4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>122</v>
-      </c>
-      <c r="R4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" t="s">
-        <v>123</v>
-      </c>
-      <c r="T4" t="s">
-        <v>43</v>
-      </c>
-      <c r="U4" t="s">
-        <v>124</v>
-      </c>
-      <c r="V4" t="s">
-        <v>37</v>
-      </c>
-      <c r="X4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" t="s">
-        <v>135</v>
-      </c>
-      <c r="L5" t="s">
-        <v>135</v>
-      </c>
-      <c r="N5" t="s">
-        <v>99</v>
-      </c>
-      <c r="P5" t="s">
-        <v>133</v>
-      </c>
-      <c r="R5" t="s">
-        <v>133</v>
-      </c>
-      <c r="T5" t="s">
-        <v>135</v>
-      </c>
-      <c r="V5" t="s">
-        <v>136</v>
-      </c>
-      <c r="W5" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8A35C5-E8F5-4844-BAFE-513F82E94F7B}">
   <dimension ref="A3:H23"/>
   <sheetViews>
@@ -2819,29 +1971,29 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -2862,12 +2014,12 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B5" s="24">
         <v>1</v>
@@ -2883,9 +2035,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -2899,9 +2051,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24">
@@ -2915,9 +2067,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -2931,9 +2083,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9" s="24">
         <v>1</v>
@@ -2947,9 +2099,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -2965,9 +2117,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="24">
@@ -2983,9 +2135,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="24">
@@ -2999,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>13</v>
       </c>
@@ -3015,9 +2167,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="24">
@@ -3031,7 +2183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>37</v>
       </c>
@@ -3057,9 +2209,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
@@ -3073,9 +2225,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="24">
         <v>1</v>
@@ -3099,9 +2251,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B18" s="24">
         <v>1</v>
@@ -3115,9 +2267,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="24">
@@ -3133,9 +2285,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
@@ -3149,9 +2301,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="24">
@@ -3169,9 +2321,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="24">
@@ -3185,9 +2337,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B23" s="24">
         <v>5</v>
@@ -3216,7 +2368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792627FD-1DAE-46D4-A13B-27DA36FB0A6A}">
   <dimension ref="B2:H43"/>
   <sheetViews>
@@ -3224,41 +2376,41 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="51.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C4" s="11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C5" s="13">
         <v>44690</v>
       </c>
@@ -3272,10 +2424,10 @@
         <v>0.2</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C6" s="13">
         <v>44690</v>
       </c>
@@ -3289,10 +2441,10 @@
         <v>0.2</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C7" s="13">
         <v>44690</v>
       </c>
@@ -3306,10 +2458,10 @@
         <v>0.2</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C8" s="13">
         <v>44690</v>
       </c>
@@ -3323,10 +2475,10 @@
         <v>0.2</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C9" s="13">
         <v>44690</v>
       </c>
@@ -3340,10 +2492,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C10" s="13">
         <v>44690</v>
       </c>
@@ -3357,10 +2509,10 @@
         <v>0.2</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C11" s="13">
         <v>44690</v>
       </c>
@@ -3368,16 +2520,16 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11">
         <v>0.8</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C12" s="13">
         <v>44690</v>
       </c>
@@ -3385,16 +2537,16 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F12">
         <v>0.8</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C13" s="13">
         <v>44690</v>
       </c>
@@ -3402,16 +2554,16 @@
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F13">
         <v>0.8</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C14" s="13">
         <v>44690</v>
       </c>
@@ -3419,16 +2571,16 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14">
         <v>0.8</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C15" s="13">
         <v>44690</v>
       </c>
@@ -3436,16 +2588,16 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F15">
         <v>0.8</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C16" s="13">
         <v>44697</v>
       </c>
@@ -3453,16 +2605,16 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" ht="31" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C17" s="13">
         <v>44697</v>
       </c>
@@ -3470,16 +2622,16 @@
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="13">
         <v>44697</v>
       </c>
@@ -3487,16 +2639,16 @@
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="13">
         <v>44697</v>
       </c>
@@ -3504,16 +2656,16 @@
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19">
         <v>0.5</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" ht="31" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C20" s="13">
         <v>44697</v>
       </c>
@@ -3521,16 +2673,16 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F20">
         <v>0.5</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" s="13">
         <v>44697</v>
       </c>
@@ -3538,16 +2690,16 @@
         <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="13">
         <v>44697</v>
       </c>
@@ -3555,16 +2707,16 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="13">
         <v>44704</v>
       </c>
@@ -3572,16 +2724,16 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F23">
         <v>0.5</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="13">
         <v>44704</v>
       </c>
@@ -3589,16 +2741,16 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="13">
         <v>44704</v>
       </c>
@@ -3606,16 +2758,16 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="13">
         <v>44704</v>
       </c>
@@ -3623,16 +2775,16 @@
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="13">
         <v>44704</v>
       </c>
@@ -3640,16 +2792,16 @@
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="13">
         <v>44704</v>
       </c>
@@ -3657,16 +2809,16 @@
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="13">
         <v>44704</v>
       </c>
@@ -3674,16 +2826,16 @@
         <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="13">
         <v>44704</v>
       </c>
@@ -3697,10 +2849,10 @@
         <v>1</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="13">
         <v>44704</v>
       </c>
@@ -3708,16 +2860,16 @@
         <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="13">
         <v>44704</v>
       </c>
@@ -3725,16 +2877,16 @@
         <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="13">
         <v>44704</v>
       </c>
@@ -3742,16 +2894,16 @@
         <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" s="13">
         <v>44711</v>
       </c>
@@ -3759,16 +2911,16 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="13">
         <v>44711</v>
       </c>
@@ -3776,16 +2928,16 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" s="13">
         <v>44711</v>
       </c>
@@ -3793,16 +2945,16 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F36" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" s="13">
         <v>44711</v>
       </c>
@@ -3810,16 +2962,16 @@
         <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" s="13">
         <v>44711</v>
       </c>
@@ -3827,16 +2979,16 @@
         <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" s="13">
         <v>44711</v>
       </c>
@@ -3844,16 +2996,16 @@
         <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F39" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C40" s="13">
         <v>44711</v>
       </c>
@@ -3861,16 +3013,16 @@
         <v>19</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C41" s="13">
         <v>44711</v>
       </c>
@@ -3878,16 +3030,16 @@
         <v>21</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" s="13">
         <v>44711</v>
       </c>
@@ -3895,16 +3047,16 @@
         <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43" s="13">
         <v>44711</v>
       </c>
@@ -3912,13 +3064,13 @@
         <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Traking/Winners_Tracking.xlsx
+++ b/Traking/Winners_Tracking.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCA\Ingenierie logicielle\winners\scrabble-td3-winners\Traking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fef60bdfbb7e8819/Documents/GitHub/scrabble-td3-winners/Traking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B01F9B5-068F-4885-A8A9-E76A36D1EBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="13_ncr:1_{4B01F9B5-068F-4885-A8A9-E76A36D1EBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CFBA923-4561-4033-9F25-658E49D92008}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69E16E0F-F538-B845-8F7F-630A124B2F74}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{69E16E0F-F538-B845-8F7F-630A124B2F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
-    <sheet name="Tableau dynamique" sheetId="7" r:id="rId2"/>
+    <sheet name="Tableau croisé dynamique" sheetId="8" r:id="rId2"/>
     <sheet name="History" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="117">
   <si>
     <t>Project information</t>
   </si>
@@ -186,27 +186,12 @@
     <t>Création du projet Maven</t>
   </si>
   <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>IJ</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
     <t>Création des classes</t>
   </si>
   <si>
-    <t>MPPM1</t>
-  </si>
-  <si>
     <t>Mis en place du projet multimodules: Création des modules avec leur POM</t>
   </si>
   <si>
-    <t>MPPM2</t>
-  </si>
-  <si>
     <t>Mis en place du projet multimodules: Réorganisation des modules</t>
   </si>
   <si>
@@ -228,15 +213,6 @@
     <t>Intégration Spring Boot</t>
   </si>
   <si>
-    <t>APM</t>
-  </si>
-  <si>
-    <t>APFJ</t>
-  </si>
-  <si>
-    <t>APLP</t>
-  </si>
-  <si>
     <t>EFT</t>
   </si>
   <si>
@@ -348,9 +324,6 @@
     <t>Aucun commit effectué</t>
   </si>
   <si>
-    <t>CT</t>
-  </si>
-  <si>
     <t>Ajout de la dépendance de sprintboot dans le module partie</t>
   </si>
   <si>
@@ -378,9 +351,6 @@
     <t>Étiquettes de colonnes</t>
   </si>
   <si>
-    <t>;</t>
-  </si>
-  <si>
     <t>Création du projet Maven, Intégration Travis, Intégration Java,Création des classes</t>
   </si>
   <si>
@@ -412,6 +382,39 @@
   </si>
   <si>
     <t>Création des APIs pour: identifier chaque module dans l'appariement, positionner un mot,  demander de finir un jeu,lancer la partie, donner la main au joueur, récupérer url joueur et partie,Commencer la partie dès que 2 joueurs sont connectés, Vérifier si le mot joué est bon, Compter point</t>
+  </si>
+  <si>
+    <t>N'a effectué aucun commit</t>
+  </si>
+  <si>
+    <t>Création de la grille de scrable</t>
+  </si>
+  <si>
+    <t>Mise a  jour de project de traking</t>
+  </si>
+  <si>
+    <t>Mise à jour de l'historique du traking et création du tableau croisé dynamique</t>
+  </si>
+  <si>
+    <t>Edition de la classe comune</t>
+  </si>
+  <si>
+    <t>Edition du module appariement</t>
+  </si>
+  <si>
+    <t>Edition des itération</t>
+  </si>
+  <si>
+    <t>Edition du rapport finale</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>Edition du rapport</t>
+  </si>
+  <si>
+    <t>Nombre de Workload</t>
   </si>
 </sst>
 </file>
@@ -613,9 +616,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fatoumata Binta Diallo" refreshedDate="44719.445686689818" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="39" xr:uid="{7DD190C3-CF90-4427-BC48-1945732C3B19}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fatoumata Binta Diallo" refreshedDate="44722.458224074071" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="49" xr:uid="{CD1C5849-8576-4F15-8B4F-85596353766E}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="D4:F43" sheet="History"/>
+    <worksheetSource ref="D4:F53" sheet="History"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="Who" numFmtId="0">
@@ -629,37 +632,25 @@
       </sharedItems>
     </cacheField>
     <cacheField name="What" numFmtId="0">
-      <sharedItems count="18">
+      <sharedItems count="14">
         <s v="IO"/>
-        <s v="IJ"/>
         <s v="CP"/>
-        <s v="IT"/>
-        <s v="CC"/>
+        <s v="ABS"/>
         <s v="EDL1"/>
-        <s v="MPPM1"/>
-        <s v="MPPM2"/>
-        <s v="ABS"/>
-        <s v="APLP"/>
+        <s v="MPPM"/>
+        <s v="APIS"/>
         <s v="TU"/>
         <s v="MPI"/>
         <s v="ISB"/>
-        <s v="APM"/>
-        <s v="APFJ"/>
-        <s v="Id"/>
-        <s v="CT"/>
+        <s v="ID"/>
+        <s v="EFT"/>
         <s v="M"/>
+        <s v="CG"/>
+        <s v="ER"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Workload" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0.2" maxValue="1" count="7">
-        <n v="0.2"/>
-        <n v="1"/>
-        <n v="0.8"/>
-        <n v="0.5"/>
-        <s v="0.3"/>
-        <s v="0.2"/>
-        <s v="0.4"/>
-      </sharedItems>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0.2" maxValue="1"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -671,208 +662,258 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="39">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="49">
   <r>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="0.2"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="0.2"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="0.2"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="0.2"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
-    <x v="1"/>
+    <n v="0.2"/>
   </r>
   <r>
     <x v="5"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="0.2"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
+    <n v="0.8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.8"/>
+  </r>
+  <r>
     <x v="2"/>
-  </r>
-  <r>
     <x v="1"/>
+    <n v="0.8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="0.8"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="0.8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="0.3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="0.2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="0.2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="0.2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="0.4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <s v="0.2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="9"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="0.4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="0.2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <s v="0.4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="0.2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="0.4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <s v="0.4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="11"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <n v="0.8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="0.8"/>
+  </r>
+  <r>
     <x v="2"/>
     <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="3"/>
-    <x v="3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="5"/>
     <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
+    <n v="0.8"/>
   </r>
   <r>
     <x v="3"/>
     <x v="7"/>
-    <x v="3"/>
+    <n v="0.2"/>
   </r>
   <r>
     <x v="4"/>
-    <x v="8"/>
-    <x v="1"/>
+    <x v="13"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="10"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="12"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
     <x v="13"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="14"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="11"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="15"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="8"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="8"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="16"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="16"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="17"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{94225B9F-BE49-4764-AA95-93BB56895B5F}" name="Tableau croisé dynamique1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:H23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58230891-30E3-4941-AB00-A1B18371BAEC}" name="Tableau croisé dynamique1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:H19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
       <items count="7">
@@ -886,45 +927,30 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="19">
+      <items count="15">
+        <item x="2"/>
+        <item x="5"/>
+        <item x="12"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="9"/>
+        <item x="0"/>
         <item x="8"/>
-        <item x="14"/>
-        <item x="9"/>
-        <item x="13"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="16"/>
-        <item x="5"/>
-        <item x="15"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="12"/>
-        <item x="3"/>
-        <item x="17"/>
         <item x="11"/>
-        <item x="6"/>
         <item x="7"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="5"/>
         <item x="4"/>
         <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="19">
+  <rowItems count="15">
     <i>
       <x/>
     </i>
@@ -967,18 +993,6 @@
     <i>
       <x v="13"/>
     </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -1010,7 +1024,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name=";" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Nombre de Workload" fld="2" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1321,21 +1335,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAE7E2C-8C99-9742-8F88-0BE23F9A2024}">
-  <dimension ref="B1:K46"/>
+  <dimension ref="B1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="32.5" style="10" customWidth="1"/>
     <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1344,21 +1358,21 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="14"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="14"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -1369,7 +1383,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
@@ -1380,7 +1394,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -1391,7 +1405,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -1402,7 +1416,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -1415,7 +1429,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -1428,33 +1442,32 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="17">
-        <f>D9*D22</f>
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="14"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="14"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1463,14 +1476,14 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="14"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1481,7 +1494,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -1492,7 +1505,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
@@ -1503,7 +1516,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
         <v>19</v>
@@ -1514,7 +1527,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -1525,7 +1538,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>23</v>
@@ -1536,7 +1549,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>25</v>
@@ -1547,7 +1560,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
         <v>27</v>
@@ -1558,19 +1571,19 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="14"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B26" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C28" s="6" t="s">
         <v>13</v>
       </c>
@@ -1599,7 +1612,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1610,7 +1623,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>37</v>
       </c>
@@ -1628,43 +1641,46 @@
         <v>6</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:H44" si="1">IF(ISNUMBER(F30),F30-G30,"")</f>
+        <f t="shared" ref="H30:H46" si="1">IF(ISNUMBER(F30),F30-G30,"")</f>
         <v>-3</v>
       </c>
       <c r="I30" s="21">
-        <f t="shared" ref="I30:I41" si="2">IF(ISNUMBER(G30), G30/F30,"")</f>
+        <f t="shared" ref="I30:I46" si="2">IF(ISNUMBER(G30), G30/F30,"")</f>
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>13</v>
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I31" s="21" t="str">
+        <v>-3</v>
+      </c>
+      <c r="I31" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="46.5" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -1673,21 +1689,24 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="G32">
+        <v>7</v>
+      </c>
       <c r="H32">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I32" s="21" t="str">
+        <v>-4</v>
+      </c>
+      <c r="I32" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="31" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1705,35 +1724,38 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E34">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="I34" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="I34" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1742,44 +1764,50 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I35" s="21" t="str">
+        <v>-1</v>
+      </c>
+      <c r="I35" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="3:9" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="128.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E36">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
       </c>
       <c r="H36">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="I36" s="21" t="str">
+        <v>7</v>
+      </c>
+      <c r="I36" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E37">
         <v>10</v>
@@ -1797,12 +1825,12 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1811,21 +1839,24 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
       <c r="H38">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I38" s="21" t="str">
+        <v>0</v>
+      </c>
+      <c r="I38" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1843,42 +1874,45 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I40" s="21" t="str">
+      <c r="I40" s="21">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
@@ -1889,41 +1923,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I42" s="21"/>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
       </c>
       <c r="H43">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I43" s="21"/>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I43" s="21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E44">
         <v>5</v>
@@ -1932,29 +1985,87 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
       <c r="H44">
         <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I44" s="21">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="I45" s="21">
+        <f>IF(ISNUMBER(G45), G45/F45,"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D46" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46">
-        <f>SUM(E30:E43)</f>
-        <v>42.4</v>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I46" s="21">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="D47" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47">
+        <f>SUM(E30:E46)</f>
+        <v>58</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ref="F47:H47" si="3">SUM(F30:F46)</f>
+        <v>64</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="3"/>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1964,36 +2075,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8A35C5-E8F5-4844-BAFE-513F82E94F7B}">
-  <dimension ref="A3:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852A446B-998D-4779-A0D5-E8ACDD8804BA}">
+  <dimension ref="A3:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.9140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.9140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.58203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.08203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.4140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.08203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.9140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.58203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.4140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="2.9140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2.58203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="2.58203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.08203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.4140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="2.9140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="2.58203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="22" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -2014,12 +2156,12 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B5" s="24">
         <v>1</v>
@@ -2027,33 +2169,37 @@
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="24">
+        <v>3</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24">
+        <v>1</v>
+      </c>
+      <c r="H5" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24">
+        <v>1</v>
+      </c>
+      <c r="D6" s="24">
         <v>2</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24">
-        <v>1</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24">
@@ -2067,30 +2213,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="B8" s="24">
+        <v>2</v>
+      </c>
+      <c r="C8" s="24">
+        <v>2</v>
+      </c>
       <c r="D8" s="24">
-        <v>1</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
+        <v>2</v>
+      </c>
+      <c r="E8" s="24">
+        <v>1</v>
+      </c>
+      <c r="F8" s="24">
+        <v>3</v>
+      </c>
+      <c r="G8" s="24">
+        <v>3</v>
+      </c>
       <c r="H8" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="24">
-        <v>1</v>
-      </c>
-      <c r="C9" s="24"/>
+        <v>45</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24">
+        <v>1</v>
+      </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
@@ -2099,166 +2255,162 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="C10" s="24">
+        <v>2</v>
+      </c>
       <c r="D10" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="24">
-        <v>1</v>
-      </c>
+      <c r="G10" s="24"/>
       <c r="H10" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24">
-        <v>1</v>
-      </c>
-      <c r="D11" s="24">
-        <v>1</v>
-      </c>
-      <c r="E11" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="B11" s="24">
+        <v>1</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24">
+        <v>1</v>
+      </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B12" s="24"/>
-      <c r="C12" s="24">
-        <v>1</v>
-      </c>
+      <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="G12" s="24">
+        <v>1</v>
+      </c>
       <c r="H12" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
+        <v>37</v>
+      </c>
+      <c r="B13" s="24">
+        <v>1</v>
+      </c>
+      <c r="C13" s="24">
+        <v>1</v>
+      </c>
+      <c r="D13" s="24">
+        <v>1</v>
+      </c>
+      <c r="E13" s="24">
+        <v>1</v>
+      </c>
+      <c r="F13" s="24">
+        <v>1</v>
+      </c>
       <c r="G13" s="24">
         <v>1</v>
       </c>
       <c r="H13" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B14" s="24"/>
-      <c r="C14" s="24">
-        <v>1</v>
-      </c>
-      <c r="D14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24">
+        <v>2</v>
+      </c>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="B15" s="24">
         <v>1</v>
       </c>
-      <c r="C15" s="24">
-        <v>1</v>
-      </c>
-      <c r="D15" s="24">
-        <v>1</v>
-      </c>
-      <c r="E15" s="24">
-        <v>1</v>
-      </c>
-      <c r="F15" s="24">
-        <v>1</v>
-      </c>
-      <c r="G15" s="24">
-        <v>1</v>
-      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24">
-        <v>1</v>
-      </c>
+      <c r="C16" s="24">
+        <v>1</v>
+      </c>
+      <c r="D16" s="24"/>
       <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
+      <c r="F16" s="24">
+        <v>1</v>
+      </c>
       <c r="G16" s="24"/>
       <c r="H16" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="24">
-        <v>1</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B17" s="24"/>
       <c r="C17" s="24">
         <v>1</v>
       </c>
       <c r="D17" s="24">
-        <v>1</v>
-      </c>
-      <c r="E17" s="24">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E17" s="24"/>
       <c r="F17" s="24">
         <v>3</v>
       </c>
-      <c r="G17" s="24">
-        <v>2</v>
-      </c>
+      <c r="G17" s="24"/>
       <c r="H17" s="24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="24">
-        <v>1</v>
-      </c>
-      <c r="C18" s="24"/>
+        <v>55</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24">
+        <v>1</v>
+      </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
@@ -2267,100 +2419,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="24"/>
+        <v>93</v>
+      </c>
+      <c r="B19" s="24">
+        <v>6</v>
+      </c>
       <c r="C19" s="24">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D19" s="24">
-        <v>1</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+        <v>12</v>
+      </c>
+      <c r="E19" s="24">
+        <v>6</v>
+      </c>
+      <c r="F19" s="24">
+        <v>8</v>
+      </c>
+      <c r="G19" s="24">
+        <v>6</v>
+      </c>
       <c r="H19" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24">
-        <v>1</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24">
-        <v>1</v>
-      </c>
-      <c r="D21" s="24">
-        <v>1</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24">
-        <v>2</v>
-      </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24">
-        <v>1</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="24">
-        <v>5</v>
-      </c>
-      <c r="C23" s="24">
-        <v>9</v>
-      </c>
-      <c r="D23" s="24">
-        <v>10</v>
-      </c>
-      <c r="E23" s="24">
-        <v>4</v>
-      </c>
-      <c r="F23" s="24">
-        <v>6</v>
-      </c>
-      <c r="G23" s="24">
-        <v>5</v>
-      </c>
-      <c r="H23" s="24">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2370,47 +2452,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792627FD-1DAE-46D4-A13B-27DA36FB0A6A}">
-  <dimension ref="B2:H43"/>
+  <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="51.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C4" s="11" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C5" s="13">
         <v>44690</v>
       </c>
@@ -2424,10 +2506,10 @@
         <v>0.2</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C6" s="13">
         <v>44690</v>
       </c>
@@ -2441,10 +2523,10 @@
         <v>0.2</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C7" s="13">
         <v>44690</v>
       </c>
@@ -2458,10 +2540,10 @@
         <v>0.2</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C8" s="13">
         <v>44690</v>
       </c>
@@ -2475,10 +2557,10 @@
         <v>0.2</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C9" s="13">
         <v>44690</v>
       </c>
@@ -2489,13 +2571,13 @@
         <v>37</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C10" s="13">
         <v>44690</v>
       </c>
@@ -2509,10 +2591,10 @@
         <v>0.2</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C11" s="13">
         <v>44690</v>
       </c>
@@ -2520,16 +2602,16 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F11">
         <v>0.8</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C12" s="13">
         <v>44690</v>
       </c>
@@ -2537,16 +2619,16 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F12">
         <v>0.8</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C13" s="13">
         <v>44690</v>
       </c>
@@ -2554,7 +2636,7 @@
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F13">
         <v>0.8</v>
@@ -2563,7 +2645,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C14" s="13">
         <v>44690</v>
       </c>
@@ -2571,101 +2653,101 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="F14">
         <v>0.8</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C15" s="13">
         <v>44690</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F15">
         <v>0.8</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C16" s="13">
-        <v>44697</v>
+        <v>44690</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C17" s="13">
         <v>44697</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="31" x14ac:dyDescent="0.35">
       <c r="C18" s="13">
         <v>44697</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C19" s="13">
         <v>44697</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C20" s="13">
         <v>44697</v>
       </c>
@@ -2673,67 +2755,67 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F20">
         <v>0.5</v>
       </c>
-      <c r="G20" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="31" x14ac:dyDescent="0.35">
       <c r="C21" s="13">
         <v>44697</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C22" s="13">
         <v>44697</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C23" s="13">
+        <v>44697</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="13">
-        <v>44704</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C24" s="13">
         <v>44704</v>
       </c>
@@ -2741,16 +2823,16 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" t="s">
-        <v>84</v>
+        <v>98</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C25" s="13">
         <v>44704</v>
       </c>
@@ -2758,33 +2840,33 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C26" s="13">
         <v>44704</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C27" s="13">
         <v>44704</v>
       </c>
@@ -2792,16 +2874,16 @@
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C28" s="13">
         <v>44704</v>
       </c>
@@ -2809,16 +2891,16 @@
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C29" s="13">
         <v>44704</v>
       </c>
@@ -2826,101 +2908,101 @@
         <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C30" s="13">
         <v>44704</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="F30" t="s">
+        <v>78</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C31" s="13">
         <v>44704</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C32" s="13">
         <v>44704</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C33" s="13">
         <v>44704</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C34" s="13">
+        <v>44704</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E33" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="13">
-        <v>44711</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E34" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" t="s">
-        <v>89</v>
+        <v>51</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C35" s="13">
         <v>44711</v>
       </c>
@@ -2928,16 +3010,16 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="F35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G35" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C36" s="13">
         <v>44711</v>
       </c>
@@ -2945,33 +3027,33 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C37" s="13">
         <v>44711</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C38" s="13">
         <v>44711</v>
       </c>
@@ -2979,16 +3061,16 @@
         <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F38" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C39" s="13">
         <v>44711</v>
       </c>
@@ -2996,81 +3078,251 @@
         <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F39" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C40" s="13">
         <v>44711</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="F40" t="s">
+        <v>81</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C41" s="13">
         <v>44711</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C42" s="13">
         <v>44711</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C43" s="13">
         <v>44711</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C44" s="13">
+        <v>44711</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E43" t="s">
-        <v>98</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>100</v>
+      <c r="E44" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C45" s="13">
+        <v>44718</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45">
+        <v>0.8</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C46" s="13">
+        <v>44718</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46">
+        <v>0.2</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C47" s="13">
+        <v>44718</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47">
+        <v>0.2</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C48" s="13">
+        <v>44718</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48">
+        <v>0.8</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C49" s="13">
+        <v>44718</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C50" s="13">
+        <v>44718</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50">
+        <v>0.8</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C51" s="13">
+        <v>44718</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51">
+        <v>0.2</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C52" s="13">
+        <v>44718</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" t="s">
+        <v>114</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C53" s="13">
+        <v>44718</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Traking/Winners_Tracking.xlsx
+++ b/Traking/Winners_Tracking.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fef60bdfbb7e8819/Documents/GitHub/scrabble-td3-winners/Traking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="13_ncr:1_{4B01F9B5-068F-4885-A8A9-E76A36D1EBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CFBA923-4561-4033-9F25-658E49D92008}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{4B01F9B5-068F-4885-A8A9-E76A36D1EBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E3CAD4B-D47C-442F-A565-38F6299A70C8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{69E16E0F-F538-B845-8F7F-630A124B2F74}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{69E16E0F-F538-B845-8F7F-630A124B2F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
-    <sheet name="Tableau croisé dynamique" sheetId="8" r:id="rId2"/>
+    <sheet name="Tableau croisé dynamique" sheetId="9" r:id="rId2"/>
     <sheet name="History" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="121">
   <si>
     <t>Project information</t>
   </si>
@@ -381,9 +381,6 @@
     <t>Créer dictionnaire de mots</t>
   </si>
   <si>
-    <t>Création des APIs pour: identifier chaque module dans l'appariement, positionner un mot,  demander de finir un jeu,lancer la partie, donner la main au joueur, récupérer url joueur et partie,Commencer la partie dès que 2 joueurs sont connectés, Vérifier si le mot joué est bon, Compter point</t>
-  </si>
-  <si>
     <t>N'a effectué aucun commit</t>
   </si>
   <si>
@@ -415,6 +412,21 @@
   </si>
   <si>
     <t>Nombre de Workload</t>
+  </si>
+  <si>
+    <t>Création des  différents APIs</t>
+  </si>
+  <si>
+    <t>Test unitaire de l'API demander un mot</t>
+  </si>
+  <si>
+    <t>mise à jour du traking</t>
+  </si>
+  <si>
+    <t>Changement des ports de quelques modules</t>
+  </si>
+  <si>
+    <t>Fonctionnement de l'appariement</t>
   </si>
 </sst>
 </file>
@@ -616,9 +628,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fatoumata Binta Diallo" refreshedDate="44722.458224074071" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="49" xr:uid="{CD1C5849-8576-4F15-8B4F-85596353766E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fatoumata Binta Diallo" refreshedDate="44729.451940393519" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="56" xr:uid="{EECF69A6-083A-46D3-BF9E-584F973E0241}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="D4:F53" sheet="History"/>
+    <worksheetSource ref="D4:F60" sheet="History"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="Who" numFmtId="0">
@@ -650,7 +662,15 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Workload" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0.2" maxValue="1"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0.2" maxValue="1" count="7">
+        <n v="0.2"/>
+        <n v="0.8"/>
+        <n v="1"/>
+        <n v="0.5"/>
+        <s v="0.3"/>
+        <s v="0.2"/>
+        <s v="0.4"/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -662,257 +682,292 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="49">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="56">
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="0.2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
-    <n v="0.2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
-    <n v="0.2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
-    <n v="0.2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
-    <n v="0.2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="5"/>
     <x v="0"/>
-    <n v="0.2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="0.8"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <n v="0.8"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="0.8"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="0.8"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="0.8"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
-    <n v="0.8"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
-    <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="0.5"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="0.5"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
-    <n v="0.5"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="0"/>
     <x v="6"/>
-    <s v="0.3"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="0"/>
     <x v="7"/>
-    <s v="0.2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="1"/>
     <x v="8"/>
-    <s v="0.2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="1"/>
     <x v="5"/>
-    <s v="0.2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="1"/>
     <x v="5"/>
-    <s v="0.4"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="1"/>
     <x v="8"/>
-    <s v="0.2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="2"/>
     <x v="9"/>
-    <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="4"/>
     <x v="2"/>
-    <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="5"/>
     <x v="2"/>
-    <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
-    <s v="0.4"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
-    <s v="0.2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="0"/>
     <x v="10"/>
-    <s v="0.4"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <s v="0.2"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
-    <s v="0.4"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="1"/>
     <x v="10"/>
-    <s v="0.4"/>
+    <x v="6"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="4"/>
     <x v="1"/>
-    <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="5"/>
     <x v="11"/>
-    <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="0"/>
     <x v="12"/>
-    <n v="0.8"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
     <x v="10"/>
-    <n v="0.2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
     <x v="10"/>
-    <n v="0.2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="0.8"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
-    <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="3"/>
     <x v="4"/>
-    <n v="0.8"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="3"/>
     <x v="7"/>
-    <n v="0.2"/>
+    <x v="0"/>
   </r>
   <r>
     <x v="4"/>
     <x v="13"/>
-    <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="5"/>
     <x v="13"/>
-    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="13"/>
+    <x v="2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58230891-30E3-4941-AB00-A1B18371BAEC}" name="Tableau croisé dynamique1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9F1BDCF-AD11-4BFE-8D64-CF69E133F7E0}" name="Tableau croisé dynamique1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -945,7 +1000,18 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -1337,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAE7E2C-8C99-9742-8F88-0BE23F9A2024}">
   <dimension ref="B1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1690,15 +1756,15 @@
         <v>3</v>
       </c>
       <c r="G32">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="I32" s="21">
         <f t="shared" si="2"/>
-        <v>2.3333333333333335</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="3:9" ht="31" x14ac:dyDescent="0.35">
@@ -1776,12 +1842,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="3:9" ht="128.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
         <v>98</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="E36">
         <v>10</v>
@@ -1889,15 +1955,15 @@
         <v>5</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="21">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.35">
@@ -1909,10 +1975,10 @@
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
@@ -1986,15 +2052,15 @@
         <v>5</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I44" s="21">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.35">
@@ -2024,10 +2090,10 @@
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E46">
         <v>5</v>
@@ -2057,15 +2123,15 @@
       </c>
       <c r="F47">
         <f t="shared" ref="F47:H47" si="3">SUM(F30:F46)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G47">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H47">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2075,11 +2141,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852A446B-998D-4779-A0D5-E8ACDD8804BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690EB403-FDEA-4C79-93E2-BA56B0D1B4C7}">
   <dimension ref="A3:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2092,42 +2158,11 @@
     <col min="6" max="6" width="3.9140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.08203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.9140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.58203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.08203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.4140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.08203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.9140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.58203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.4140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="2.9140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="2.58203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="2.58203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.08203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.4140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.58203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="2.9140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="2.58203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.4140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>94</v>
@@ -2173,10 +2208,10 @@
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -2261,7 +2296,7 @@
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="24">
         <v>2</v>
@@ -2270,25 +2305,25 @@
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -2392,15 +2427,15 @@
         <v>1</v>
       </c>
       <c r="D17" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="24">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -2409,14 +2444,14 @@
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
       <c r="H18" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -2424,25 +2459,25 @@
         <v>93</v>
       </c>
       <c r="B19" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19" s="24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F19" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H19" s="24">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2452,10 +2487,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792627FD-1DAE-46D4-A13B-27DA36FB0A6A}">
-  <dimension ref="B2:H53"/>
+  <dimension ref="B2:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F53"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2676,7 +2711,7 @@
         <v>0.8</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
@@ -3186,7 +3221,7 @@
         <v>0.8</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.35">
@@ -3203,7 +3238,7 @@
         <v>0.2</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.35">
@@ -3220,7 +3255,7 @@
         <v>0.2</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.35">
@@ -3237,7 +3272,7 @@
         <v>0.8</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.35">
@@ -3271,7 +3306,7 @@
         <v>0.8</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.35">
@@ -3288,7 +3323,7 @@
         <v>0.2</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.35">
@@ -3299,13 +3334,13 @@
         <v>23</v>
       </c>
       <c r="E52" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.35">
@@ -3316,13 +3351,132 @@
         <v>25</v>
       </c>
       <c r="E53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>115</v>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C54" s="13">
+        <v>44725</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54">
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C55" s="13">
+        <v>44725</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55">
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C56" s="13">
+        <v>44725</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C57" s="13">
+        <v>44725</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C58" s="13">
+        <v>44725</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" t="s">
+        <v>97</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C59" s="13">
+        <v>44725</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C60" s="13">
+        <v>44725</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Traking/Winners_Tracking.xlsx
+++ b/Traking/Winners_Tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fef60bdfbb7e8819/Documents/GitHub/scrabble-td3-winners/Traking/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCA\Ingenierie logicielle\winners\scrabble-td3-winners\Traking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{4B01F9B5-068F-4885-A8A9-E76A36D1EBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E3CAD4B-D47C-442F-A565-38F6299A70C8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F123D3B9-7573-4702-AAB8-4183E9209879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{69E16E0F-F538-B845-8F7F-630A124B2F74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69E16E0F-F538-B845-8F7F-630A124B2F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="122">
   <si>
     <t>Project information</t>
   </si>
@@ -204,9 +204,6 @@
     <t>EDL1</t>
   </si>
   <si>
-    <t>Edition Doc Livraison 1</t>
-  </si>
-  <si>
     <t>ISB</t>
   </si>
   <si>
@@ -427,6 +424,12 @@
   </si>
   <si>
     <t>Fonctionnement de l'appariement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edition Doc Livraison </t>
+  </si>
+  <si>
+    <t>EDL</t>
   </si>
 </sst>
 </file>
@@ -967,7 +970,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9F1BDCF-AD11-4BFE-8D64-CF69E133F7E0}" name="Tableau croisé dynamique1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9F1BDCF-AD11-4BFE-8D64-CF69E133F7E0}" name="Tableau croisé dynamique1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -1403,19 +1406,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAE7E2C-8C99-9742-8F88-0BE23F9A2024}">
   <dimension ref="B1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="32.5" style="10" customWidth="1"/>
     <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1424,21 +1427,21 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="14"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="14"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -1449,7 +1452,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
@@ -1460,7 +1463,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -1471,7 +1474,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -1482,7 +1485,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -1495,7 +1498,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -1508,7 +1511,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
@@ -1519,21 +1522,21 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="14"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="14"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1542,14 +1545,14 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="14"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1560,7 +1563,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -1571,7 +1574,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
@@ -1582,7 +1585,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
         <v>19</v>
@@ -1593,7 +1596,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -1604,7 +1607,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>23</v>
@@ -1615,7 +1618,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>25</v>
@@ -1626,7 +1629,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
         <v>27</v>
@@ -1637,19 +1640,19 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="14"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="26" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C28" s="6" t="s">
         <v>13</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1689,7 +1692,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>37</v>
       </c>
@@ -1715,12 +1718,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E31">
         <v>10</v>
@@ -1741,12 +1744,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -1767,7 +1770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="3:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>43</v>
       </c>
@@ -1790,12 +1793,12 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1816,12 +1819,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>48</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1842,12 +1845,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="3:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:9" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E36">
         <v>10</v>
@@ -1868,12 +1871,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="37" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>100</v>
       </c>
       <c r="E37">
         <v>10</v>
@@ -1891,12 +1894,12 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>102</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1917,12 +1920,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>103</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>104</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1940,12 +1943,12 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>50</v>
       </c>
       <c r="E40">
         <v>5</v>
@@ -1966,12 +1969,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
@@ -1989,12 +1992,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
@@ -2012,12 +2015,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>53</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2037,12 +2040,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>56</v>
       </c>
       <c r="E44">
         <v>5</v>
@@ -2063,12 +2066,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>57</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>58</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2088,12 +2091,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E46">
         <v>5</v>
@@ -2113,9 +2116,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D47" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E47">
         <f>SUM(E30:E46)</f>
@@ -2148,29 +2151,29 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -2191,12 +2194,12 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="24">
         <v>1</v>
@@ -2214,9 +2217,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24">
@@ -2232,9 +2235,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24">
@@ -2248,9 +2251,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="24">
         <v>2</v>
@@ -2274,7 +2277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>45</v>
       </c>
@@ -2290,9 +2293,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24">
@@ -2308,9 +2311,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" s="24">
         <v>2</v>
@@ -2326,9 +2329,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
@@ -2342,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>37</v>
       </c>
@@ -2368,9 +2371,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -2384,9 +2387,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" s="24">
         <v>1</v>
@@ -2400,9 +2403,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24">
@@ -2418,9 +2421,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="24">
@@ -2438,9 +2441,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24">
@@ -2454,9 +2457,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="24">
         <v>7</v>
@@ -2493,41 +2496,41 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="51.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C5" s="13">
         <v>44690</v>
       </c>
@@ -2541,10 +2544,10 @@
         <v>0.2</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C6" s="13">
         <v>44690</v>
       </c>
@@ -2558,10 +2561,10 @@
         <v>0.2</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C7" s="13">
         <v>44690</v>
       </c>
@@ -2575,10 +2578,10 @@
         <v>0.2</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C8" s="13">
         <v>44690</v>
       </c>
@@ -2592,10 +2595,10 @@
         <v>0.2</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C9" s="13">
         <v>44690</v>
       </c>
@@ -2609,10 +2612,10 @@
         <v>0.2</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C10" s="13">
         <v>44690</v>
       </c>
@@ -2626,10 +2629,10 @@
         <v>0.2</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C11" s="13">
         <v>44690</v>
       </c>
@@ -2637,16 +2640,16 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F11">
         <v>0.8</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C12" s="13">
         <v>44690</v>
       </c>
@@ -2654,16 +2657,16 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12">
         <v>0.8</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C13" s="13">
         <v>44690</v>
       </c>
@@ -2671,7 +2674,7 @@
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13">
         <v>0.8</v>
@@ -2680,7 +2683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C14" s="13">
         <v>44690</v>
       </c>
@@ -2688,16 +2691,16 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14">
         <v>0.8</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C15" s="13">
         <v>44690</v>
       </c>
@@ -2705,16 +2708,16 @@
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15">
         <v>0.8</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C16" s="13">
         <v>44690</v>
       </c>
@@ -2722,7 +2725,7 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16">
         <v>0.8</v>
@@ -2731,7 +2734,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="13">
         <v>44697</v>
       </c>
@@ -2745,10 +2748,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" ht="31" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C18" s="13">
         <v>44697</v>
       </c>
@@ -2756,7 +2759,7 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2765,7 +2768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" s="13">
         <v>44697</v>
       </c>
@@ -2773,16 +2776,16 @@
         <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="13">
         <v>44697</v>
       </c>
@@ -2790,16 +2793,16 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20">
         <v>0.5</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" ht="31" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C21" s="13">
         <v>44697</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21">
         <v>0.5</v>
@@ -2816,7 +2819,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" s="13">
         <v>44697</v>
       </c>
@@ -2824,16 +2827,16 @@
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" s="13">
         <v>44697</v>
       </c>
@@ -2841,16 +2844,16 @@
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="13">
         <v>44704</v>
       </c>
@@ -2858,16 +2861,16 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F24">
         <v>0.5</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25" s="13">
         <v>44704</v>
       </c>
@@ -2875,16 +2878,16 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="13">
         <v>44704</v>
       </c>
@@ -2892,16 +2895,16 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F26" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="13">
         <v>44704</v>
       </c>
@@ -2909,16 +2912,16 @@
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="13">
         <v>44704</v>
       </c>
@@ -2926,16 +2929,16 @@
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="13">
         <v>44704</v>
       </c>
@@ -2943,16 +2946,16 @@
         <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" s="13">
         <v>44704</v>
       </c>
@@ -2960,16 +2963,16 @@
         <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" s="13">
         <v>44704</v>
       </c>
@@ -2977,16 +2980,16 @@
         <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="13">
         <v>44704</v>
       </c>
@@ -2994,16 +2997,16 @@
         <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="13">
         <v>44704</v>
       </c>
@@ -3011,16 +3014,16 @@
         <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" s="13">
         <v>44704</v>
       </c>
@@ -3028,16 +3031,16 @@
         <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="13">
         <v>44711</v>
       </c>
@@ -3045,16 +3048,16 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" s="13">
         <v>44711</v>
       </c>
@@ -3062,16 +3065,16 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" s="13">
         <v>44711</v>
       </c>
@@ -3079,16 +3082,16 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" s="13">
         <v>44711</v>
       </c>
@@ -3096,16 +3099,16 @@
         <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" s="13">
         <v>44711</v>
       </c>
@@ -3113,16 +3116,16 @@
         <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C40" s="13">
         <v>44711</v>
       </c>
@@ -3130,16 +3133,16 @@
         <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C41" s="13">
         <v>44711</v>
       </c>
@@ -3147,16 +3150,16 @@
         <v>19</v>
       </c>
       <c r="E41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42" s="13">
         <v>44711</v>
       </c>
@@ -3164,16 +3167,16 @@
         <v>21</v>
       </c>
       <c r="E42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43" s="13">
         <v>44711</v>
       </c>
@@ -3181,16 +3184,16 @@
         <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C44" s="13">
         <v>44711</v>
       </c>
@@ -3198,16 +3201,16 @@
         <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C45" s="13">
         <v>44718</v>
       </c>
@@ -3215,16 +3218,16 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F45">
         <v>0.8</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C46" s="13">
         <v>44718</v>
       </c>
@@ -3232,16 +3235,16 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F46">
         <v>0.2</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C47" s="13">
         <v>44718</v>
       </c>
@@ -3249,16 +3252,16 @@
         <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F47">
         <v>0.2</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C48" s="13">
         <v>44718</v>
       </c>
@@ -3266,16 +3269,16 @@
         <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F48">
         <v>0.8</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C49" s="13">
         <v>44718</v>
       </c>
@@ -3283,16 +3286,16 @@
         <v>19</v>
       </c>
       <c r="E49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C50" s="13">
         <v>44718</v>
       </c>
@@ -3300,16 +3303,16 @@
         <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50">
         <v>0.8</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C51" s="13">
         <v>44718</v>
       </c>
@@ -3317,16 +3320,16 @@
         <v>21</v>
       </c>
       <c r="E51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F51">
         <v>0.2</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C52" s="13">
         <v>44718</v>
       </c>
@@ -3334,16 +3337,16 @@
         <v>23</v>
       </c>
       <c r="E52" t="s">
+        <v>112</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C53" s="13">
         <v>44718</v>
       </c>
@@ -3351,16 +3354,16 @@
         <v>25</v>
       </c>
       <c r="E53" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C54" s="13">
         <v>44725</v>
       </c>
@@ -3368,16 +3371,16 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F54">
         <v>0.5</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C55" s="13">
         <v>44725</v>
       </c>
@@ -3385,16 +3388,16 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F55">
         <v>0.5</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C56" s="13">
         <v>44725</v>
       </c>
@@ -3402,16 +3405,16 @@
         <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C57" s="13">
         <v>44725</v>
       </c>
@@ -3419,16 +3422,16 @@
         <v>19</v>
       </c>
       <c r="E57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C58" s="13">
         <v>44725</v>
       </c>
@@ -3436,16 +3439,16 @@
         <v>21</v>
       </c>
       <c r="E58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C59" s="13">
         <v>44725</v>
       </c>
@@ -3453,16 +3456,16 @@
         <v>23</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C60" s="13">
         <v>44725</v>
       </c>
@@ -3470,13 +3473,13 @@
         <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Traking/Winners_Tracking.xlsx
+++ b/Traking/Winners_Tracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCA\Ingenierie logicielle\winners\scrabble-td3-winners\Traking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master1\cours\OIL\scrabble-td3-winners\Traking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F123D3B9-7573-4702-AAB8-4183E9209879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDF0F77A-3A2C-42DE-B9C8-C8A399E87190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69E16E0F-F538-B845-8F7F-630A124B2F74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69E16E0F-F538-B845-8F7F-630A124B2F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="120">
   <si>
     <t>Project information</t>
   </si>
@@ -204,6 +204,9 @@
     <t>EDL1</t>
   </si>
   <si>
+    <t>Edition Doc Livraison 1</t>
+  </si>
+  <si>
     <t>ISB</t>
   </si>
   <si>
@@ -291,24 +294,15 @@
     <t>mise en place de l'API permettant de lancer une partie</t>
   </si>
   <si>
-    <t>0.3</t>
-  </si>
-  <si>
     <t>Test unitaire de l'API connexion</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
     <t>Integration finale du sprintboot</t>
   </si>
   <si>
     <t>Integration de l'API pour placer un mot</t>
   </si>
   <si>
-    <t>0.4</t>
-  </si>
-  <si>
     <t>Mis en place de l'API pour finir une partie</t>
   </si>
   <si>
@@ -408,9 +402,6 @@
     <t>Edition du rapport</t>
   </si>
   <si>
-    <t>Nombre de Workload</t>
-  </si>
-  <si>
     <t>Création des  différents APIs</t>
   </si>
   <si>
@@ -426,10 +417,13 @@
     <t>Fonctionnement de l'appariement</t>
   </si>
   <si>
-    <t xml:space="preserve">Edition Doc Livraison </t>
-  </si>
-  <si>
-    <t>EDL</t>
+    <t>Somme de Workload</t>
+  </si>
+  <si>
+    <t>Nb jours manquants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nb de jours de travail restant </t>
   </si>
 </sst>
 </file>
@@ -555,7 +549,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -609,6 +603,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,7 +614,11 @@
     <cellStyle name="Pivot Table Field" xfId="2" xr:uid="{8EAB03BE-F31E-45D9-ABC2-13B1CE749AA5}"/>
     <cellStyle name="Pivot Table Title" xfId="4" xr:uid="{C809D5BC-5108-4F39-9DB7-2AF421721F3B}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -631,7 +632,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fatoumata Binta Diallo" refreshedDate="44729.451940393519" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="56" xr:uid="{EECF69A6-083A-46D3-BF9E-584F973E0241}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Lahcene Bousadia" refreshedDate="44732.444999652776" createdVersion="7" refreshedVersion="8" minRefreshableVersion="3" recordCount="56" xr:uid="{EECF69A6-083A-46D3-BF9E-584F973E0241}">
   <cacheSource type="worksheet">
     <worksheetSource ref="D4:F60" sheet="History"/>
   </cacheSource>
@@ -665,15 +666,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Workload" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0.2" maxValue="1" count="7">
-        <n v="0.2"/>
-        <n v="0.8"/>
-        <n v="1"/>
-        <n v="0.5"/>
-        <s v="0.3"/>
-        <s v="0.2"/>
-        <s v="0.4"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.2" maxValue="1"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -689,288 +682,288 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="0.2"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="0.2"/>
   </r>
   <r>
     <x v="2"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="0.2"/>
   </r>
   <r>
     <x v="3"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="0.2"/>
   </r>
   <r>
     <x v="4"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="0.2"/>
   </r>
   <r>
     <x v="5"/>
     <x v="0"/>
-    <x v="0"/>
+    <n v="0.2"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
+    <n v="0.8"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <x v="1"/>
+    <n v="0.8"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
-    <x v="1"/>
+    <n v="0.8"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
-    <x v="1"/>
+    <n v="0.8"/>
   </r>
   <r>
     <x v="4"/>
     <x v="2"/>
-    <x v="1"/>
+    <n v="0.8"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
-    <x v="1"/>
+    <n v="0.8"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
-    <x v="3"/>
+    <n v="0.5"/>
   </r>
   <r>
     <x v="3"/>
     <x v="4"/>
-    <x v="3"/>
+    <n v="0.5"/>
   </r>
   <r>
     <x v="4"/>
     <x v="2"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
     <x v="1"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
-    <x v="3"/>
+    <n v="0.5"/>
   </r>
   <r>
     <x v="0"/>
     <x v="6"/>
-    <x v="4"/>
+    <n v="0.3"/>
   </r>
   <r>
     <x v="0"/>
     <x v="7"/>
-    <x v="5"/>
+    <n v="0.2"/>
   </r>
   <r>
     <x v="1"/>
     <x v="8"/>
-    <x v="5"/>
+    <n v="0.2"/>
   </r>
   <r>
     <x v="1"/>
     <x v="5"/>
-    <x v="5"/>
+    <n v="0.2"/>
   </r>
   <r>
     <x v="1"/>
     <x v="5"/>
-    <x v="6"/>
+    <n v="0.4"/>
   </r>
   <r>
     <x v="1"/>
     <x v="8"/>
-    <x v="5"/>
+    <n v="0.2"/>
   </r>
   <r>
     <x v="2"/>
     <x v="9"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="3"/>
     <x v="4"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="4"/>
     <x v="2"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
     <x v="2"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
-    <x v="6"/>
+    <n v="0.4"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
-    <x v="5"/>
+    <n v="0.2"/>
   </r>
   <r>
     <x v="0"/>
     <x v="10"/>
-    <x v="6"/>
+    <n v="0.4"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <x v="5"/>
+    <n v="0.2"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
-    <x v="6"/>
+    <n v="0.4"/>
   </r>
   <r>
     <x v="1"/>
     <x v="10"/>
-    <x v="6"/>
+    <n v="0.4"/>
   </r>
   <r>
     <x v="2"/>
     <x v="1"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="3"/>
     <x v="1"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="4"/>
     <x v="1"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
     <x v="11"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="0"/>
     <x v="12"/>
-    <x v="1"/>
+    <n v="0.8"/>
   </r>
   <r>
     <x v="0"/>
     <x v="10"/>
-    <x v="0"/>
+    <n v="0.2"/>
   </r>
   <r>
     <x v="1"/>
     <x v="10"/>
-    <x v="0"/>
+    <n v="0.2"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
-    <x v="1"/>
+    <n v="0.8"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="3"/>
     <x v="4"/>
-    <x v="1"/>
+    <n v="0.8"/>
   </r>
   <r>
     <x v="3"/>
     <x v="7"/>
-    <x v="0"/>
+    <n v="0.2"/>
   </r>
   <r>
     <x v="4"/>
     <x v="13"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
     <x v="13"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="0"/>
     <x v="6"/>
-    <x v="3"/>
+    <n v="0.5"/>
   </r>
   <r>
     <x v="0"/>
     <x v="10"/>
-    <x v="3"/>
+    <n v="0.5"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="2"/>
     <x v="2"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="3"/>
     <x v="4"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="4"/>
     <x v="13"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="5"/>
     <x v="13"/>
-    <x v="2"/>
+    <n v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9F1BDCF-AD11-4BFE-8D64-CF69E133F7E0}" name="Tableau croisé dynamique1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9F1BDCF-AD11-4BFE-8D64-CF69E133F7E0}" name="Tableau croisé dynamique1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -1003,18 +996,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
@@ -1093,8 +1075,17 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Nombre de Workload" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Somme de Workload" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1404,21 +1395,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAE7E2C-8C99-9742-8F88-0BE23F9A2024}">
-  <dimension ref="B1:K47"/>
+  <dimension ref="B1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="32.5" style="10" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="15.69921875" customWidth="1"/>
+    <col min="6" max="6" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1427,21 +1418,21 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="14"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="14"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -1452,7 +1443,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
@@ -1463,7 +1454,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -1474,7 +1465,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -1485,7 +1476,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -1498,7 +1489,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -1511,7 +1502,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
@@ -1522,21 +1513,21 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="14"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="14"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1545,14 +1536,14 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="14"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1563,7 +1554,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -1574,7 +1565,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
@@ -1585,7 +1576,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
         <v>19</v>
@@ -1596,7 +1587,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -1607,7 +1598,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>23</v>
@@ -1618,7 +1609,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>25</v>
@@ -1629,7 +1620,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
         <v>27</v>
@@ -1640,19 +1631,19 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="14"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="26" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" ht="18" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C28" s="6" t="s">
         <v>13</v>
       </c>
@@ -1681,7 +1672,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1692,7 +1683,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>37</v>
       </c>
@@ -1707,23 +1698,23 @@
         <v>3</v>
       </c>
       <c r="G30">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="H30">
         <f t="shared" ref="H30:H46" si="1">IF(ISNUMBER(F30),F30-G30,"")</f>
-        <v>-3</v>
+        <v>1.8</v>
       </c>
       <c r="I30" s="21">
-        <f t="shared" ref="I30:I46" si="2">IF(ISNUMBER(G30), G30/F30,"")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I30:I47" si="2">IF(ISNUMBER(G30), G30/F30,"")</f>
+        <v>0.39999999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E31">
         <v>10</v>
@@ -1744,12 +1735,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -1759,18 +1750,18 @@
         <v>3</v>
       </c>
       <c r="G32">
-        <v>9</v>
+        <v>6.9</v>
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
-        <v>-6</v>
+        <v>-3.9000000000000004</v>
       </c>
       <c r="I32" s="21">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>2.3000000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>43</v>
       </c>
@@ -1793,12 +1784,12 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1819,12 +1810,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1834,23 +1825,23 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0.6</v>
       </c>
       <c r="I35" s="21">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="29.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E36">
         <v>10</v>
@@ -1860,23 +1851,23 @@
         <v>10</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H36">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8.9</v>
       </c>
       <c r="I36" s="21">
         <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.11000000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E37">
         <v>10</v>
@@ -1894,12 +1885,12 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1909,23 +1900,23 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="I38" s="21">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1943,12 +1934,12 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E40">
         <v>5</v>
@@ -1969,19 +1960,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="G41">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
@@ -1992,12 +1983,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
@@ -2015,12 +2006,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2040,12 +2031,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E44">
         <v>5</v>
@@ -2055,48 +2046,48 @@
         <v>5</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H44">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="I44" s="21">
         <f t="shared" si="2"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
         <v>0.4</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>2</v>
       </c>
       <c r="H45">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0.6</v>
       </c>
       <c r="I45" s="21">
         <f>IF(ISNUMBER(G45), G45/F45,"")</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E46">
         <v>5</v>
@@ -2116,9 +2107,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D47" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E47">
         <f>SUM(E30:E46)</f>
@@ -2126,15 +2117,36 @@
       </c>
       <c r="F47">
         <f t="shared" ref="F47:H47" si="3">SUM(F30:F46)</f>
-        <v>65</v>
+        <v>64.8</v>
       </c>
       <c r="G47">
         <f t="shared" si="3"/>
-        <v>54</v>
+        <v>40.4</v>
       </c>
       <c r="H47">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>24.400000000000002</v>
+      </c>
+      <c r="I47" s="21">
+        <f t="shared" si="2"/>
+        <v>0.62345679012345678</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="10">
+        <f>H47-D51</f>
+        <v>-5.5999999999999979</v>
       </c>
     </row>
   </sheetData>
@@ -2147,33 +2159,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690EB403-FDEA-4C79-93E2-BA56B0D1B4C7}">
   <dimension ref="A3:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="A3:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -2194,293 +2205,293 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="24">
-        <v>1</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24">
-        <v>3</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24">
+        <v>51</v>
+      </c>
+      <c r="B5" s="25">
+        <v>1</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25">
+        <v>2.8</v>
+      </c>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25">
         <v>2</v>
       </c>
-      <c r="H5" s="24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="25">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24">
-        <v>1</v>
-      </c>
-      <c r="D6" s="24">
-        <v>2</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24">
-        <v>1</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="24">
-        <v>2</v>
-      </c>
-      <c r="C8" s="24">
-        <v>2</v>
-      </c>
-      <c r="D8" s="24">
-        <v>2</v>
-      </c>
-      <c r="E8" s="24">
-        <v>1</v>
-      </c>
-      <c r="F8" s="24">
-        <v>3</v>
-      </c>
-      <c r="G8" s="24">
-        <v>3</v>
-      </c>
-      <c r="H8" s="24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="B8" s="25">
+        <v>1.8</v>
+      </c>
+      <c r="C8" s="25">
+        <v>1</v>
+      </c>
+      <c r="D8" s="25">
+        <v>1</v>
+      </c>
+      <c r="E8" s="25">
+        <v>1</v>
+      </c>
+      <c r="F8" s="25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G8" s="25">
+        <v>2.8</v>
+      </c>
+      <c r="H8" s="25">
+        <v>9.8999999999999986</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24">
-        <v>1</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25">
+        <v>1</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24">
-        <v>3</v>
-      </c>
-      <c r="D10" s="24">
+        <v>49</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25">
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="25">
         <v>2</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="24">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25">
         <v>2</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24">
-        <v>2</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24">
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24">
-        <v>1</v>
-      </c>
-      <c r="H12" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25">
+        <v>1</v>
+      </c>
+      <c r="H12" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="24">
-        <v>1</v>
-      </c>
-      <c r="C13" s="24">
-        <v>1</v>
-      </c>
-      <c r="D13" s="24">
-        <v>1</v>
-      </c>
-      <c r="E13" s="24">
-        <v>1</v>
-      </c>
-      <c r="F13" s="24">
-        <v>1</v>
-      </c>
-      <c r="G13" s="24">
-        <v>1</v>
-      </c>
-      <c r="H13" s="24">
+      <c r="B13" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="25">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="25">
+        <v>1</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="D17" s="25">
+        <v>3.2</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25">
+        <v>3.3</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="24">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24">
-        <v>2</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="24">
-        <v>1</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24">
-        <v>1</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24">
-        <v>1</v>
-      </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24">
-        <v>1</v>
-      </c>
-      <c r="D17" s="24">
-        <v>4</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24">
-        <v>4</v>
-      </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24">
-        <v>2</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="24">
-        <v>7</v>
-      </c>
       <c r="C19" s="24">
-        <v>13</v>
+        <v>6.0000000000000009</v>
       </c>
       <c r="D19" s="24">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E19" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" s="24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G19" s="24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H19" s="24">
-        <v>56</v>
+        <v>35.999999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -2492,45 +2503,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792627FD-1DAE-46D4-A13B-27DA36FB0A6A}">
   <dimension ref="B2:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="51.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C4" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C5" s="13">
         <v>44690</v>
       </c>
@@ -2544,10 +2555,10 @@
         <v>0.2</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="13">
         <v>44690</v>
       </c>
@@ -2561,10 +2572,10 @@
         <v>0.2</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C7" s="13">
         <v>44690</v>
       </c>
@@ -2578,10 +2589,10 @@
         <v>0.2</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C8" s="13">
         <v>44690</v>
       </c>
@@ -2595,10 +2606,10 @@
         <v>0.2</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C9" s="13">
         <v>44690</v>
       </c>
@@ -2612,10 +2623,10 @@
         <v>0.2</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C10" s="13">
         <v>44690</v>
       </c>
@@ -2629,10 +2640,10 @@
         <v>0.2</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C11" s="13">
         <v>44690</v>
       </c>
@@ -2640,16 +2651,16 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11">
         <v>0.8</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C12" s="13">
         <v>44690</v>
       </c>
@@ -2657,16 +2668,16 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12">
         <v>0.8</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C13" s="13">
         <v>44690</v>
       </c>
@@ -2674,7 +2685,7 @@
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F13">
         <v>0.8</v>
@@ -2683,7 +2694,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C14" s="13">
         <v>44690</v>
       </c>
@@ -2691,16 +2702,16 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F14">
         <v>0.8</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C15" s="13">
         <v>44690</v>
       </c>
@@ -2708,16 +2719,16 @@
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F15">
         <v>0.8</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C16" s="13">
         <v>44690</v>
       </c>
@@ -2725,7 +2736,7 @@
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F16">
         <v>0.8</v>
@@ -2734,7 +2745,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="13">
         <v>44697</v>
       </c>
@@ -2748,10 +2759,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C18" s="13">
         <v>44697</v>
       </c>
@@ -2759,7 +2770,7 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2768,7 +2779,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="13">
         <v>44697</v>
       </c>
@@ -2776,16 +2787,16 @@
         <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="13">
         <v>44697</v>
       </c>
@@ -2793,16 +2804,16 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F20">
         <v>0.5</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" ht="31.5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C21" s="13">
         <v>44697</v>
       </c>
@@ -2810,7 +2821,7 @@
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F21">
         <v>0.5</v>
@@ -2819,7 +2830,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" s="13">
         <v>44697</v>
       </c>
@@ -2827,16 +2838,16 @@
         <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="13">
         <v>44697</v>
       </c>
@@ -2844,16 +2855,16 @@
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="13">
         <v>44704</v>
       </c>
@@ -2861,16 +2872,16 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F24">
         <v>0.5</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="13">
         <v>44704</v>
       </c>
@@ -2878,16 +2889,16 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" t="s">
-        <v>75</v>
+        <v>55</v>
+      </c>
+      <c r="F25">
+        <v>0.3</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="13">
         <v>44704</v>
       </c>
@@ -2895,16 +2906,16 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" t="s">
-        <v>77</v>
+        <v>57</v>
+      </c>
+      <c r="F26">
+        <v>0.2</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="13">
         <v>44704</v>
       </c>
@@ -2912,16 +2923,16 @@
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27">
+        <v>0.2</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" s="13">
         <v>44704</v>
       </c>
@@ -2929,16 +2940,16 @@
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" t="s">
-        <v>77</v>
+        <v>95</v>
+      </c>
+      <c r="F28">
+        <v>0.2</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" s="13">
         <v>44704</v>
       </c>
@@ -2946,16 +2957,16 @@
         <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" t="s">
-        <v>80</v>
+        <v>95</v>
+      </c>
+      <c r="F29">
+        <v>0.4</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" s="13">
         <v>44704</v>
       </c>
@@ -2963,16 +2974,16 @@
         <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30">
+        <v>0.2</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" s="13">
         <v>44704</v>
       </c>
@@ -2980,16 +2991,16 @@
         <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" s="13">
         <v>44704</v>
       </c>
@@ -2997,16 +3008,16 @@
         <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C33" s="13">
         <v>44704</v>
       </c>
@@ -3014,16 +3025,16 @@
         <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C34" s="13">
         <v>44704</v>
       </c>
@@ -3031,16 +3042,16 @@
         <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35" s="13">
         <v>44711</v>
       </c>
@@ -3048,16 +3059,16 @@
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" t="s">
-        <v>80</v>
+        <v>94</v>
+      </c>
+      <c r="F35">
+        <v>0.4</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C36" s="13">
         <v>44711</v>
       </c>
@@ -3065,16 +3076,16 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" t="s">
-        <v>77</v>
+        <v>69</v>
+      </c>
+      <c r="F36">
+        <v>0.2</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C37" s="13">
         <v>44711</v>
       </c>
@@ -3082,16 +3093,16 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" t="s">
-        <v>80</v>
+        <v>49</v>
+      </c>
+      <c r="F37">
+        <v>0.4</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C38" s="13">
         <v>44711</v>
       </c>
@@ -3099,16 +3110,16 @@
         <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" t="s">
-        <v>77</v>
+        <v>69</v>
+      </c>
+      <c r="F38">
+        <v>0.2</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C39" s="13">
         <v>44711</v>
       </c>
@@ -3116,16 +3127,16 @@
         <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
-      </c>
-      <c r="F39" t="s">
-        <v>80</v>
+        <v>94</v>
+      </c>
+      <c r="F39">
+        <v>0.4</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C40" s="13">
         <v>44711</v>
       </c>
@@ -3133,16 +3144,16 @@
         <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
+        <v>49</v>
+      </c>
+      <c r="F40">
+        <v>0.4</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C41" s="13">
         <v>44711</v>
       </c>
@@ -3150,16 +3161,16 @@
         <v>19</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C42" s="13">
         <v>44711</v>
       </c>
@@ -3167,16 +3178,16 @@
         <v>21</v>
       </c>
       <c r="E42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C43" s="13">
         <v>44711</v>
       </c>
@@ -3184,16 +3195,16 @@
         <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C44" s="13">
         <v>44711</v>
       </c>
@@ -3201,16 +3212,16 @@
         <v>25</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C45" s="13">
         <v>44718</v>
       </c>
@@ -3218,16 +3229,16 @@
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F45">
         <v>0.8</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C46" s="13">
         <v>44718</v>
       </c>
@@ -3235,16 +3246,16 @@
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F46">
         <v>0.2</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C47" s="13">
         <v>44718</v>
       </c>
@@ -3252,16 +3263,16 @@
         <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47">
         <v>0.2</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C48" s="13">
         <v>44718</v>
       </c>
@@ -3269,16 +3280,16 @@
         <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F48">
         <v>0.8</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" s="13">
         <v>44718</v>
       </c>
@@ -3286,16 +3297,16 @@
         <v>19</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" s="13">
         <v>44718</v>
       </c>
@@ -3303,16 +3314,16 @@
         <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F50">
         <v>0.8</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C51" s="13">
         <v>44718</v>
       </c>
@@ -3320,16 +3331,16 @@
         <v>21</v>
       </c>
       <c r="E51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F51">
         <v>0.2</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C52" s="13">
         <v>44718</v>
       </c>
@@ -3337,16 +3348,16 @@
         <v>23</v>
       </c>
       <c r="E52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C53" s="13">
         <v>44718</v>
       </c>
@@ -3354,16 +3365,16 @@
         <v>25</v>
       </c>
       <c r="E53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C54" s="13">
         <v>44725</v>
       </c>
@@ -3371,16 +3382,16 @@
         <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F54">
         <v>0.5</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C55" s="13">
         <v>44725</v>
       </c>
@@ -3388,16 +3399,16 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F55">
         <v>0.5</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C56" s="13">
         <v>44725</v>
       </c>
@@ -3405,16 +3416,16 @@
         <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C57" s="13">
         <v>44725</v>
       </c>
@@ -3422,16 +3433,16 @@
         <v>19</v>
       </c>
       <c r="E57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C58" s="13">
         <v>44725</v>
       </c>
@@ -3439,16 +3450,16 @@
         <v>21</v>
       </c>
       <c r="E58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C59" s="13">
         <v>44725</v>
       </c>
@@ -3456,16 +3467,16 @@
         <v>23</v>
       </c>
       <c r="E59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C60" s="13">
         <v>44725</v>
       </c>
@@ -3473,13 +3484,13 @@
         <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Traking/Winners_Tracking.xlsx
+++ b/Traking/Winners_Tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Master1\cours\OIL\scrabble-td3-winners\Traking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fef60bdfbb7e8819/Documents/GitHub/scrabble-td3-winners/Traking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDF0F77A-3A2C-42DE-B9C8-C8A399E87190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{BDF0F77A-3A2C-42DE-B9C8-C8A399E87190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E15A734-9488-45C7-99AE-F6750453368E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69E16E0F-F538-B845-8F7F-630A124B2F74}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{69E16E0F-F538-B845-8F7F-630A124B2F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -1397,19 +1397,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAE7E2C-8C99-9742-8F88-0BE23F9A2024}">
   <dimension ref="B1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="32.5" style="10" customWidth="1"/>
-    <col min="5" max="5" width="15.69921875" customWidth="1"/>
-    <col min="6" max="6" width="15.796875" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1418,21 +1418,21 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="2:6" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="14"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="14"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -1443,7 +1443,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
@@ -1454,7 +1454,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
@@ -1465,7 +1465,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -1476,7 +1476,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>7</v>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
         <v>11</v>
@@ -1513,21 +1513,21 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="14"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="14"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1536,14 +1536,14 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="14"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="4" t="s">
         <v>13</v>
@@ -1554,7 +1554,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
         <v>15</v>
@@ -1565,7 +1565,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
@@ -1576,7 +1576,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
         <v>19</v>
@@ -1587,7 +1587,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>21</v>
@@ -1598,7 +1598,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>23</v>
@@ -1609,7 +1609,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>25</v>
@@ -1620,7 +1620,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
         <v>27</v>
@@ -1631,19 +1631,19 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="14"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="26" spans="2:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B26" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C28" s="6" t="s">
         <v>13</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1683,7 +1683,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>37</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>69</v>
       </c>
@@ -1724,18 +1724,18 @@
         <v>10</v>
       </c>
       <c r="G31">
-        <v>13</v>
+        <v>9.9</v>
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
-        <v>-3</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="I31" s="21">
         <f t="shared" si="2"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" ht="62.4" x14ac:dyDescent="0.3">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="46.5" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>94</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>2.3000000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:9" ht="31" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
         <v>43</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>45</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>47</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="36" spans="3:9" ht="29.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:9" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
         <v>95</v>
       </c>
@@ -1844,25 +1844,25 @@
         <v>112</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G36">
         <v>1.1000000000000001</v>
       </c>
       <c r="H36">
         <f t="shared" si="1"/>
-        <v>8.9</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="I36" s="21">
         <f t="shared" si="2"/>
-        <v>0.11000000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
         <v>96</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
         <v>98</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="39" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>100</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
         <v>49</v>
       </c>
@@ -1949,18 +1949,18 @@
         <v>5</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I40" s="21">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
+        <v>0.33999999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>51</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
         <v>86</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
         <v>53</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
         <v>55</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>57</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
         <v>110</v>
       </c>
@@ -2096,43 +2096,43 @@
         <v>5</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H46">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46" s="21">
         <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.35">
       <c r="D47" s="20" t="s">
         <v>59</v>
       </c>
       <c r="E47">
         <f>SUM(E30:E46)</f>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F47">
         <f t="shared" ref="F47:H47" si="3">SUM(F30:F46)</f>
-        <v>64.8</v>
+        <v>56.8</v>
       </c>
       <c r="G47">
         <f t="shared" si="3"/>
-        <v>40.4</v>
+        <v>36</v>
       </c>
       <c r="H47">
         <f t="shared" si="3"/>
-        <v>24.400000000000002</v>
+        <v>20.799999999999997</v>
       </c>
       <c r="I47" s="21">
         <f t="shared" si="2"/>
-        <v>0.62345679012345678</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+        <v>0.63380281690140849</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
         <v>119</v>
       </c>
@@ -2140,13 +2140,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C52" t="s">
         <v>118</v>
       </c>
       <c r="D52" s="10">
         <f>H47-D51</f>
-        <v>-5.5999999999999979</v>
+        <v>-9.2000000000000028</v>
       </c>
     </row>
   </sheetData>
@@ -2163,18 +2163,18 @@
       <selection activeCell="H19" sqref="A3:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.9140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="22" t="s">
         <v>117</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>89</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
         <v>51</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
         <v>95</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
         <v>98</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
         <v>69</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>9.8999999999999986</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
         <v>45</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
         <v>49</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>110</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
         <v>53</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
         <v>37</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
         <v>47</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
         <v>86</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
         <v>57</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
         <v>94</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
         <v>55</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
         <v>90</v>
       </c>
@@ -2507,21 +2507,21 @@
       <selection activeCell="D4" sqref="D4:F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="51.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C4" s="11" t="s">
         <v>61</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C5" s="13">
         <v>44690</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C6" s="13">
         <v>44690</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C7" s="13">
         <v>44690</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C8" s="13">
         <v>44690</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C9" s="13">
         <v>44690</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C10" s="13">
         <v>44690</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C11" s="13">
         <v>44690</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C12" s="13">
         <v>44690</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C13" s="13">
         <v>44690</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C14" s="13">
         <v>44690</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C15" s="13">
         <v>44690</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C16" s="13">
         <v>44690</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C17" s="13">
         <v>44697</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="3:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:7" ht="31" x14ac:dyDescent="0.35">
       <c r="C18" s="13">
         <v>44697</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C19" s="13">
         <v>44697</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C20" s="13">
         <v>44697</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="3:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" ht="31" x14ac:dyDescent="0.35">
       <c r="C21" s="13">
         <v>44697</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C22" s="13">
         <v>44697</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C23" s="13">
         <v>44697</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C24" s="13">
         <v>44704</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C25" s="13">
         <v>44704</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C26" s="13">
         <v>44704</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C27" s="13">
         <v>44704</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C28" s="13">
         <v>44704</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C29" s="13">
         <v>44704</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C30" s="13">
         <v>44704</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C31" s="13">
         <v>44704</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C32" s="13">
         <v>44704</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C33" s="13">
         <v>44704</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C34" s="13">
         <v>44704</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C35" s="13">
         <v>44711</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C36" s="13">
         <v>44711</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C37" s="13">
         <v>44711</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C38" s="13">
         <v>44711</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C39" s="13">
         <v>44711</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C40" s="13">
         <v>44711</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C41" s="13">
         <v>44711</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C42" s="13">
         <v>44711</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C43" s="13">
         <v>44711</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C44" s="13">
         <v>44711</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C45" s="13">
         <v>44718</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C46" s="13">
         <v>44718</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C47" s="13">
         <v>44718</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C48" s="13">
         <v>44718</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C49" s="13">
         <v>44718</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C50" s="13">
         <v>44718</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C51" s="13">
         <v>44718</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C52" s="13">
         <v>44718</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C53" s="13">
         <v>44718</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C54" s="13">
         <v>44725</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C55" s="13">
         <v>44725</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C56" s="13">
         <v>44725</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C57" s="13">
         <v>44725</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C58" s="13">
         <v>44725</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C59" s="13">
         <v>44725</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C60" s="13">
         <v>44725</v>
       </c>

--- a/Traking/Winners_Tracking.xlsx
+++ b/Traking/Winners_Tracking.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fef60bdfbb7e8819/Documents/GitHub/scrabble-td3-winners/Traking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{BDF0F77A-3A2C-42DE-B9C8-C8A399E87190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E15A734-9488-45C7-99AE-F6750453368E}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{BDF0F77A-3A2C-42DE-B9C8-C8A399E87190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B7F53CA-F63F-4663-9F93-09BE88D861F0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{69E16E0F-F538-B845-8F7F-630A124B2F74}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{69E16E0F-F538-B845-8F7F-630A124B2F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
-    <sheet name="Tableau croisé dynamique" sheetId="9" r:id="rId2"/>
+    <sheet name="Tableau croisé dynamique" sheetId="10" r:id="rId2"/>
     <sheet name="History" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="126">
   <si>
     <t>Project information</t>
   </si>
@@ -424,6 +424,24 @@
   </si>
   <si>
     <t xml:space="preserve">Nb de jours de travail restant </t>
+  </si>
+  <si>
+    <t>py</t>
+  </si>
+  <si>
+    <t>le tracking avec python</t>
+  </si>
+  <si>
+    <t>Finalisation du tracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création et finalisation du traking </t>
+  </si>
+  <si>
+    <t>En cours de création du dictionnaire de données</t>
+  </si>
+  <si>
+    <t>En cours de consommation de tous les API</t>
   </si>
 </sst>
 </file>
@@ -549,7 +567,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -603,9 +621,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,11 +629,7 @@
     <cellStyle name="Pivot Table Field" xfId="2" xr:uid="{8EAB03BE-F31E-45D9-ABC2-13B1CE749AA5}"/>
     <cellStyle name="Pivot Table Title" xfId="4" xr:uid="{C809D5BC-5108-4F39-9DB7-2AF421721F3B}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <alignment horizontal="right"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -632,9 +643,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Lahcene Bousadia" refreshedDate="44732.444999652776" createdVersion="7" refreshedVersion="8" minRefreshableVersion="3" recordCount="56" xr:uid="{EECF69A6-083A-46D3-BF9E-584F973E0241}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fatoumata Binta Diallo" refreshedDate="44735.900226620368" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="63" xr:uid="{05D89A1F-AFBA-4ED8-AA1A-4B234419FA68}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="D4:F60" sheet="History"/>
+    <worksheetSource ref="D4:F67" sheet="History"/>
   </cacheSource>
   <cacheFields count="3">
     <cacheField name="Who" numFmtId="0">
@@ -648,7 +659,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="What" numFmtId="0">
-      <sharedItems count="14">
+      <sharedItems count="17">
         <s v="IO"/>
         <s v="CP"/>
         <s v="ABS"/>
@@ -663,6 +674,9 @@
         <s v="M"/>
         <s v="CG"/>
         <s v="ER"/>
+        <s v="py"/>
+        <s v="CD"/>
+        <s v="CAPI"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Workload" numFmtId="0">
@@ -678,7 +692,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="56">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="63">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -947,6 +961,41 @@
   <r>
     <x v="3"/>
     <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="13"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="13"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="15"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="16"/>
     <n v="1"/>
   </r>
   <r>
@@ -963,8 +1012,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9F1BDCF-AD11-4BFE-8D64-CF69E133F7E0}" name="Tableau croisé dynamique1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:H19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FBA1522-4A75-4061-8A5F-F37A65DDD888}" name="Tableau croisé dynamique1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:H22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
       <items count="7">
@@ -978,9 +1027,11 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="15">
+      <items count="18">
         <item x="2"/>
         <item x="5"/>
+        <item x="16"/>
+        <item x="15"/>
         <item x="12"/>
         <item x="1"/>
         <item x="3"/>
@@ -992,6 +1043,7 @@
         <item x="11"/>
         <item x="7"/>
         <item x="4"/>
+        <item x="14"/>
         <item x="6"/>
         <item t="default"/>
       </items>
@@ -1001,7 +1053,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="15">
+  <rowItems count="18">
     <i>
       <x/>
     </i>
@@ -1044,6 +1096,15 @@
     <i>
       <x v="13"/>
     </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -1077,15 +1138,6 @@
   <dataFields count="1">
     <dataField name="Somme de Workload" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="0">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1395,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAE7E2C-8C99-9742-8F88-0BE23F9A2024}">
-  <dimension ref="B1:K52"/>
+  <dimension ref="B1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1508,7 +1560,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="17">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1694,18 +1746,18 @@
         <v>3</v>
       </c>
       <c r="F30">
-        <f t="shared" ref="F30:F44" si="0">IF(ISNUMBER(E30),E30,IF(ISNUMBER(G30),G30,""))</f>
+        <f t="shared" ref="F30:F47" si="0">IF(ISNUMBER(E30),E30,IF(ISNUMBER(G30),G30,""))</f>
         <v>3</v>
       </c>
       <c r="G30">
         <v>1.2</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:H46" si="1">IF(ISNUMBER(F30),F30-G30,"")</f>
+        <f t="shared" ref="H30:H47" si="1">IF(ISNUMBER(F30),F30-G30,"")</f>
         <v>1.8</v>
       </c>
       <c r="I30" s="21">
-        <f t="shared" ref="I30:I47" si="2">IF(ISNUMBER(G30), G30/F30,"")</f>
+        <f t="shared" ref="I30:I48" si="2">IF(ISNUMBER(G30), G30/F30,"")</f>
         <v>0.39999999999999997</v>
       </c>
     </row>
@@ -1870,19 +1922,22 @@
         <v>97</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
       </c>
       <c r="H37">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I37" s="21" t="str">
+        <v>4</v>
+      </c>
+      <c r="I37" s="21">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="3:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1925,13 +1980,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="G39">
+        <v>0.5</v>
+      </c>
       <c r="H39">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I39" s="21" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="I39" s="21">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.35">
@@ -1949,15 +2007,15 @@
         <v>5</v>
       </c>
       <c r="G40">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
-        <v>3.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I40" s="21">
         <f t="shared" si="2"/>
-        <v>0.33999999999999997</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.35">
@@ -1969,10 +2027,10 @@
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="G41">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
@@ -2017,6 +2075,7 @@
         <v>1</v>
       </c>
       <c r="F43">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G43">
@@ -2068,6 +2127,7 @@
         <v>1</v>
       </c>
       <c r="F45">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G45">
@@ -2078,75 +2138,102 @@
         <v>0.6</v>
       </c>
       <c r="I45" s="21">
-        <f>IF(ISNUMBER(G45), G45/F45,"")</f>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H46">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I46" s="21">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="D47" s="20" t="s">
-        <v>59</v>
+      <c r="C47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="E47">
-        <f>SUM(E30:E46)</f>
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F47">
-        <f t="shared" ref="F47:H47" si="3">SUM(F30:F46)</f>
-        <v>56.8</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="G47">
-        <f t="shared" si="3"/>
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="H47">
-        <f t="shared" si="3"/>
-        <v>20.799999999999997</v>
+        <f t="shared" si="1"/>
+        <v>-1</v>
       </c>
       <c r="I47" s="21">
         <f t="shared" si="2"/>
-        <v>0.63380281690140849</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" s="10">
-        <v>30</v>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="D48" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48">
+        <f>SUM(E30:E47)</f>
+        <v>46</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ref="F48:H48" si="3">SUM(F30:F47)</f>
+        <v>53.8</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="3"/>
+        <v>41.999999999999993</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="3"/>
+        <v>11.799999999999999</v>
+      </c>
+      <c r="I48" s="21">
+        <f t="shared" si="2"/>
+        <v>0.7806691449814126</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="10">
-        <f>H47-D51</f>
-        <v>-9.2000000000000028</v>
+      <c r="D53" s="10">
+        <f>H48-D52</f>
+        <v>-6.2000000000000011</v>
       </c>
     </row>
   </sheetData>
@@ -2156,22 +2243,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690EB403-FDEA-4C79-93E2-BA56B0D1B4C7}">
-  <dimension ref="A3:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89085AB1-B2AF-4E30-832D-E24E5E479412}">
+  <dimension ref="A3:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="A3:H19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3.9140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.9140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.9140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.58203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="5.4140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.58203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="36" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.9140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.4140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -2212,286 +2329,334 @@
       <c r="A5" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="25">
-        <v>1</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25">
+      <c r="B5" s="24">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24">
         <v>2.8</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25">
-        <v>2</v>
-      </c>
-      <c r="H5" s="25">
-        <v>5.8</v>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24">
+        <v>3</v>
+      </c>
+      <c r="H5" s="24">
+        <v>6.8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24">
         <v>0.5</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="24">
         <v>0.60000000000000009</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25">
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25">
-        <v>0.8</v>
+        <v>96</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24">
+        <v>1</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="25">
-        <v>1.8</v>
-      </c>
-      <c r="C8" s="25">
-        <v>1</v>
-      </c>
-      <c r="D8" s="25">
-        <v>1</v>
-      </c>
-      <c r="E8" s="25">
-        <v>1</v>
-      </c>
-      <c r="F8" s="25">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G8" s="25">
-        <v>2.8</v>
-      </c>
-      <c r="H8" s="25">
-        <v>9.8999999999999986</v>
+        <v>100</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24">
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25">
-        <v>1</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24">
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D10" s="25">
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25">
-        <v>1.7000000000000002</v>
+        <v>69</v>
+      </c>
+      <c r="B10" s="24">
+        <v>1.8</v>
+      </c>
+      <c r="C10" s="24">
+        <v>1</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24">
+        <v>1</v>
+      </c>
+      <c r="F10" s="24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G10" s="24">
+        <v>2.8</v>
+      </c>
+      <c r="H10" s="24">
+        <v>9.8999999999999986</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="25">
-        <v>2</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25">
-        <v>2</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25">
-        <v>4</v>
+        <v>45</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24">
+        <v>1</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25">
-        <v>1</v>
-      </c>
-      <c r="H12" s="25">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24">
+        <v>2.1</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24">
+        <v>2.7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="D13" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="E13" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="F13" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="G13" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="H13" s="25">
-        <v>1.2</v>
+        <v>110</v>
+      </c>
+      <c r="B13" s="24">
+        <v>3</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24">
+        <v>3</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25">
-        <v>0.4</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24">
+        <v>1</v>
+      </c>
+      <c r="H14" s="24">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="25">
-        <v>1</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="B15" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="E15" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="F15" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="H15" s="24">
+        <v>1.2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25">
-        <v>0.2</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25">
+        <v>47</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24">
         <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25">
-        <v>0.4</v>
-      </c>
-      <c r="D17" s="25">
-        <v>3.2</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25">
-        <v>3.3</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25">
-        <v>6.9</v>
+        <v>86</v>
+      </c>
+      <c r="B17" s="24">
+        <v>1</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25">
-        <v>0.8</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24">
+        <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="D19" s="24">
+        <v>3.2</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24">
+        <v>3.3</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="24">
-        <v>6</v>
-      </c>
-      <c r="C19" s="24">
-        <v>6.0000000000000009</v>
-      </c>
-      <c r="D19" s="24">
-        <v>6</v>
-      </c>
-      <c r="E19" s="24">
-        <v>6</v>
-      </c>
-      <c r="F19" s="24">
-        <v>6</v>
-      </c>
-      <c r="G19" s="24">
-        <v>6</v>
-      </c>
-      <c r="H19" s="24">
-        <v>35.999999999999993</v>
+      <c r="B22" s="24">
+        <v>7</v>
+      </c>
+      <c r="C22" s="24">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="D22" s="24">
+        <v>7</v>
+      </c>
+      <c r="E22" s="24">
+        <v>7</v>
+      </c>
+      <c r="F22" s="24">
+        <v>7</v>
+      </c>
+      <c r="G22" s="24">
+        <v>7</v>
+      </c>
+      <c r="H22" s="24">
+        <v>41.999999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -2501,10 +2666,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792627FD-1DAE-46D4-A13B-27DA36FB0A6A}">
-  <dimension ref="B2:H60"/>
+  <dimension ref="B2:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F60"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3493,6 +3658,125 @@
         <v>109</v>
       </c>
     </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C61" s="13">
+        <v>44732</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C62" s="13">
+        <v>44732</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62">
+        <v>0.5</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C63" s="13">
+        <v>44732</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" t="s">
+        <v>100</v>
+      </c>
+      <c r="F63">
+        <v>0.5</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C64" s="13">
+        <v>44732</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C65" s="13">
+        <v>44732</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" t="s">
+        <v>96</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C66" s="13">
+        <v>44732</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" t="s">
+        <v>110</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C67" s="13">
+        <v>44732</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" t="s">
+        <v>110</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Traking/Winners_Tracking.xlsx
+++ b/Traking/Winners_Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fef60bdfbb7e8819/Documents/GitHub/scrabble-td3-winners/Traking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{BDF0F77A-3A2C-42DE-B9C8-C8A399E87190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B7F53CA-F63F-4663-9F93-09BE88D861F0}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{BDF0F77A-3A2C-42DE-B9C8-C8A399E87190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CBD7576-334D-4789-A0A1-7F6E2F4C24F6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{69E16E0F-F538-B845-8F7F-630A124B2F74}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1012,7 +1012,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FBA1522-4A75-4061-8A5F-F37A65DDD888}" name="Tableau croisé dynamique1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FBA1522-4A75-4061-8A5F-F37A65DDD888}" name="Tableau croisé dynamique1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisCol" showAll="0">
@@ -1449,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAE7E2C-8C99-9742-8F88-0BE23F9A2024}">
   <dimension ref="B1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2224,7 +2224,7 @@
         <v>119</v>
       </c>
       <c r="D52" s="10">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.35">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D53" s="10">
         <f>H48-D52</f>
-        <v>-6.2000000000000011</v>
+        <v>5.7999999999999989</v>
       </c>
     </row>
   </sheetData>
